--- a/data/a_working/control.xlsx
+++ b/data/a_working/control.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12b7beb4033c55a8/Documents/GitHub/hein_scraping/data/a_working/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{F8364C8A-C60A-4628-9957-F973043AEB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="16284" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2041,8 +2047,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2105,6 +2111,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2151,7 +2165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2183,9 +2197,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2217,6 +2249,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2392,14 +2442,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2425,7 +2475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2448,7 +2498,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2471,7 +2521,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2494,7 +2544,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2517,7 +2567,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2540,7 +2590,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2563,7 +2613,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2586,7 +2636,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2609,7 +2659,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2632,7 +2682,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2655,7 +2705,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2678,7 +2728,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2701,7 +2751,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2724,7 +2774,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2747,7 +2797,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2770,7 +2820,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2793,7 +2843,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2816,7 +2866,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2839,7 +2889,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2862,7 +2912,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2885,7 +2935,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2908,7 +2958,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2931,7 +2981,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2954,7 +3004,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2977,7 +3027,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3000,7 +3050,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3023,7 +3073,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3046,7 +3096,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3069,7 +3119,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3092,7 +3142,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3115,7 +3165,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3138,7 +3188,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3161,7 +3211,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3184,7 +3234,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3207,7 +3257,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3230,7 +3280,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3253,7 +3303,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3276,7 +3326,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3299,7 +3349,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3322,7 +3372,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3345,7 +3395,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3368,7 +3418,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3391,7 +3441,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3414,7 +3464,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3437,7 +3487,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3460,7 +3510,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3483,7 +3533,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3506,7 +3556,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3529,7 +3579,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3552,7 +3602,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3575,7 +3625,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3598,7 +3648,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3621,7 +3671,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3644,7 +3694,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3667,7 +3717,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3690,7 +3740,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3713,7 +3763,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3736,7 +3786,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3759,7 +3809,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3782,7 +3832,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3805,7 +3855,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3828,7 +3878,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3851,7 +3901,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3874,7 +3924,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3897,7 +3947,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3920,7 +3970,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3943,7 +3993,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3966,7 +4016,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3989,7 +4039,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4012,7 +4062,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4035,7 +4085,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4058,7 +4108,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4081,7 +4131,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4104,7 +4154,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4127,7 +4177,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4150,7 +4200,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4173,7 +4223,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4196,7 +4246,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4219,7 +4269,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4242,7 +4292,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4265,7 +4315,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4288,7 +4338,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4311,7 +4361,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4334,7 +4384,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4357,7 +4407,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4380,7 +4430,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4403,7 +4453,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4426,7 +4476,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4449,7 +4499,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4472,7 +4522,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4495,7 +4545,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4518,7 +4568,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4541,7 +4591,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4564,7 +4614,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4587,7 +4637,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4610,7 +4660,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4633,7 +4683,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4656,7 +4706,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4679,7 +4729,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4702,7 +4752,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4725,7 +4775,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4748,7 +4798,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4771,7 +4821,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4794,7 +4844,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4817,7 +4867,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4840,7 +4890,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4863,7 +4913,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4886,7 +4936,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4909,7 +4959,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4932,7 +4982,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4955,7 +5005,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4978,7 +5028,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5001,7 +5051,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5024,7 +5074,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5047,7 +5097,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5070,7 +5120,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5093,7 +5143,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5116,7 +5166,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5139,7 +5189,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5162,7 +5212,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5185,7 +5235,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5208,7 +5258,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5231,7 +5281,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5254,7 +5304,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5277,7 +5327,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5300,7 +5350,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5323,7 +5373,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5346,7 +5396,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5369,7 +5419,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5392,7 +5442,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5415,7 +5465,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5438,7 +5488,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5461,7 +5511,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5484,7 +5534,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5507,7 +5557,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5530,7 +5580,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5553,7 +5603,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5576,7 +5626,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5599,7 +5649,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5622,7 +5672,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5645,7 +5695,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5668,7 +5718,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5691,7 +5741,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5714,7 +5764,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5737,7 +5787,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5760,7 +5810,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5783,7 +5833,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5806,7 +5856,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5829,7 +5879,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5852,7 +5902,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5875,7 +5925,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5898,7 +5948,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5921,7 +5971,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5944,7 +5994,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5967,7 +6017,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5990,7 +6040,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6013,7 +6063,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6036,7 +6086,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6059,7 +6109,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6082,7 +6132,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6105,7 +6155,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6128,7 +6178,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6151,7 +6201,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6174,7 +6224,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6197,7 +6247,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6220,7 +6270,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6243,7 +6293,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6266,7 +6316,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6289,7 +6339,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6312,7 +6362,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6335,7 +6385,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6358,7 +6408,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6381,7 +6431,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6404,7 +6454,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6427,7 +6477,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6450,7 +6500,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6473,7 +6523,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6496,7 +6546,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6519,7 +6569,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6542,7 +6592,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6565,7 +6615,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6588,7 +6638,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6611,7 +6661,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6634,7 +6684,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6657,7 +6707,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6680,7 +6730,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6703,7 +6753,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6726,7 +6776,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6749,7 +6799,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6772,7 +6822,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6795,7 +6845,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6818,7 +6868,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6841,7 +6891,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6864,7 +6914,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6887,7 +6937,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6910,7 +6960,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6933,7 +6983,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6956,7 +7006,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6979,7 +7029,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -7002,7 +7052,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -7025,7 +7075,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -7048,7 +7098,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -7071,7 +7121,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -7094,7 +7144,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -7117,7 +7167,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -7140,7 +7190,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -7163,7 +7213,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -7186,7 +7236,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -7209,7 +7259,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -7232,7 +7282,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -7255,7 +7305,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -7278,7 +7328,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -7301,7 +7351,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -7324,7 +7374,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -7347,7 +7397,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -7370,7 +7420,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -7393,7 +7443,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -7416,7 +7466,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -7439,7 +7489,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -7462,7 +7512,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -7485,7 +7535,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -7508,7 +7558,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -7531,7 +7581,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -7554,7 +7604,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -7577,7 +7627,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -7600,7 +7650,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -7623,7 +7673,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -7646,7 +7696,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7669,7 +7719,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -7692,7 +7742,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -7715,7 +7765,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7738,7 +7788,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -7761,7 +7811,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -7784,7 +7834,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -7807,7 +7857,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -7830,7 +7880,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -7853,7 +7903,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -7876,7 +7926,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -7899,7 +7949,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -7922,7 +7972,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -7945,7 +7995,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -7968,7 +8018,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -7991,7 +8041,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -8014,7 +8064,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -8037,7 +8087,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -8060,7 +8110,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -8083,7 +8133,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -8106,7 +8156,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -8129,7 +8179,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -8152,7 +8202,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -8175,7 +8225,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -8198,7 +8248,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -8221,7 +8271,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -8244,7 +8294,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -8267,7 +8317,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -8290,7 +8340,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -8313,7 +8363,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -8336,7 +8386,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -8359,7 +8409,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -8382,7 +8432,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -8405,7 +8455,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -8428,7 +8478,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -8451,7 +8501,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -8474,7 +8524,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -8497,7 +8547,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -8520,7 +8570,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -8543,7 +8593,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -8566,7 +8616,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -8589,7 +8639,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -8612,7 +8662,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -8635,7 +8685,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -8658,7 +8708,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -8681,7 +8731,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -8704,7 +8754,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -8727,7 +8777,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -8750,7 +8800,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -8773,7 +8823,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -8796,7 +8846,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -8819,7 +8869,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>

--- a/data/a_working/control.xlsx
+++ b/data/a_working/control.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12b7beb4033c55a8/Documents/GitHub/hein_scraping/data/a_working/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{F8364C8A-C60A-4628-9957-F973043AEB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="16284" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2047,8 +2041,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2111,14 +2105,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2165,7 +2151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2197,27 +2183,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2249,24 +2217,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2442,14 +2392,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2475,7 +2425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2498,7 +2448,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2521,7 +2471,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2544,7 +2494,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2567,7 +2517,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2590,7 +2540,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2613,7 +2563,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2636,7 +2586,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2659,7 +2609,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2682,7 +2632,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2705,7 +2655,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2728,7 +2678,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2751,7 +2701,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2774,7 +2724,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2797,7 +2747,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2820,7 +2770,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2843,7 +2793,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2866,7 +2816,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2889,7 +2839,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2912,7 +2862,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2935,7 +2885,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2958,7 +2908,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2981,7 +2931,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3004,7 +2954,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3027,7 +2977,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3050,7 +3000,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3073,7 +3023,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3096,7 +3046,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3119,7 +3069,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3142,7 +3092,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3165,7 +3115,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3188,7 +3138,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3211,7 +3161,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3234,7 +3184,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3257,7 +3207,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3280,7 +3230,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3303,7 +3253,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3326,7 +3276,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3349,7 +3299,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3372,7 +3322,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3395,7 +3345,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3418,7 +3368,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3441,7 +3391,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3464,7 +3414,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3487,7 +3437,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3510,7 +3460,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3533,7 +3483,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3556,7 +3506,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3579,7 +3529,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3602,7 +3552,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3625,7 +3575,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3648,7 +3598,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3671,7 +3621,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3694,7 +3644,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3717,7 +3667,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3740,7 +3690,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3763,7 +3713,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3786,7 +3736,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3809,7 +3759,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3832,7 +3782,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3855,7 +3805,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3878,7 +3828,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3901,7 +3851,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3924,7 +3874,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3947,7 +3897,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3970,7 +3920,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3993,7 +3943,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4016,7 +3966,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4039,7 +3989,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4062,7 +4012,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4085,7 +4035,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4108,7 +4058,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4131,7 +4081,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4154,7 +4104,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4177,7 +4127,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4200,7 +4150,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4223,7 +4173,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4246,7 +4196,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4269,7 +4219,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4292,7 +4242,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4315,7 +4265,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4338,7 +4288,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4361,7 +4311,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4384,7 +4334,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4407,7 +4357,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4430,7 +4380,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4453,7 +4403,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4476,7 +4426,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4499,7 +4449,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4522,7 +4472,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4545,7 +4495,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4568,7 +4518,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4591,7 +4541,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4614,7 +4564,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4637,7 +4587,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4660,7 +4610,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4683,7 +4633,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4706,7 +4656,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4729,7 +4679,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4752,7 +4702,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4775,7 +4725,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4798,7 +4748,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4821,7 +4771,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4844,7 +4794,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4867,7 +4817,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4890,7 +4840,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4913,7 +4863,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4936,7 +4886,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4959,7 +4909,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4982,7 +4932,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5005,7 +4955,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5028,7 +4978,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5051,7 +5001,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5074,7 +5024,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5097,7 +5047,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5120,7 +5070,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5143,7 +5093,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5166,7 +5116,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5189,7 +5139,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5212,7 +5162,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5235,7 +5185,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5258,7 +5208,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5281,7 +5231,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5304,7 +5254,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5327,7 +5277,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5350,7 +5300,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5373,7 +5323,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5396,7 +5346,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5419,7 +5369,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5442,7 +5392,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5465,7 +5415,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5488,7 +5438,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5511,7 +5461,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5534,7 +5484,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5557,7 +5507,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5580,7 +5530,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5603,7 +5553,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5626,7 +5576,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5649,7 +5599,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5672,7 +5622,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5695,7 +5645,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5718,7 +5668,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5741,7 +5691,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5764,7 +5714,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5787,7 +5737,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5810,7 +5760,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5833,7 +5783,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5856,7 +5806,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5879,7 +5829,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5902,7 +5852,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5925,7 +5875,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5948,7 +5898,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5971,7 +5921,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5994,7 +5944,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6017,7 +5967,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6040,7 +5990,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6063,7 +6013,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6086,7 +6036,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6109,7 +6059,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6132,7 +6082,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6155,7 +6105,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6178,7 +6128,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6201,7 +6151,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6224,7 +6174,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6247,7 +6197,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6270,7 +6220,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6293,7 +6243,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6316,7 +6266,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6339,7 +6289,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6362,7 +6312,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6385,7 +6335,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6408,7 +6358,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6431,7 +6381,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6454,7 +6404,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6477,7 +6427,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6500,7 +6450,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6523,7 +6473,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6546,7 +6496,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6569,7 +6519,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6592,7 +6542,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6615,7 +6565,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6638,7 +6588,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6661,7 +6611,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6684,7 +6634,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6707,7 +6657,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6730,7 +6680,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6753,7 +6703,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6776,7 +6726,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6799,7 +6749,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6822,7 +6772,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6845,7 +6795,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6868,7 +6818,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6891,7 +6841,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6914,7 +6864,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6937,7 +6887,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6960,7 +6910,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6983,7 +6933,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -7006,7 +6956,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -7029,7 +6979,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -7052,7 +7002,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -7075,7 +7025,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -7098,7 +7048,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -7121,7 +7071,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -7144,7 +7094,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -7167,7 +7117,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -7190,7 +7140,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -7213,7 +7163,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -7236,7 +7186,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -7259,7 +7209,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -7282,7 +7232,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -7305,7 +7255,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -7328,7 +7278,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -7351,7 +7301,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -7374,7 +7324,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -7397,7 +7347,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -7420,7 +7370,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -7443,7 +7393,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -7466,7 +7416,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -7489,7 +7439,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -7512,7 +7462,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -7535,7 +7485,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -7558,7 +7508,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -7581,7 +7531,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -7604,7 +7554,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -7627,7 +7577,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -7650,7 +7600,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -7673,7 +7623,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -7696,7 +7646,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7719,7 +7669,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -7742,7 +7692,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -7765,7 +7715,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7788,7 +7738,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -7811,7 +7761,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -7834,7 +7784,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -7857,7 +7807,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -7880,7 +7830,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -7903,7 +7853,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -7926,7 +7876,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -7949,7 +7899,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -7972,7 +7922,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -7995,7 +7945,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -8018,7 +7968,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -8041,7 +7991,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -8064,7 +8014,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -8087,7 +8037,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -8110,7 +8060,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -8133,7 +8083,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -8156,7 +8106,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -8179,7 +8129,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -8202,7 +8152,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -8225,7 +8175,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -8248,7 +8198,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -8271,7 +8221,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -8294,7 +8244,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -8317,7 +8267,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -8340,7 +8290,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -8363,7 +8313,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -8386,7 +8336,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -8409,7 +8359,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -8432,7 +8382,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -8455,7 +8405,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -8478,7 +8428,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -8501,7 +8451,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -8524,7 +8474,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -8547,7 +8497,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -8570,7 +8520,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -8593,7 +8543,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -8616,7 +8566,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -8639,7 +8589,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -8662,7 +8612,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -8685,7 +8635,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -8708,7 +8658,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -8731,7 +8681,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -8754,7 +8704,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -8777,7 +8727,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -8800,7 +8750,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -8823,7 +8773,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -8846,7 +8796,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -8869,7 +8819,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8">
       <c r="A280" s="1">
         <v>278</v>
       </c>

--- a/data/a_working/control.xlsx
+++ b/data/a_working/control.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="673">
   <si>
     <t>Short URL Origin</t>
   </si>
@@ -376,7 +376,7 @@
     <t>lls.edu</t>
   </si>
   <si>
-    <t>Howard</t>
+    <t>Andrew</t>
   </si>
   <si>
     <t>Bryan</t>
@@ -511,9 +511,6 @@
     <t>Taunya Lovell</t>
   </si>
   <si>
-    <t>Andrew</t>
-  </si>
-  <si>
     <t>Kevin</t>
   </si>
   <si>
@@ -625,7 +622,7 @@
     <t>Naomi</t>
   </si>
   <si>
-    <t>Dalia Tsuk</t>
+    <t>Dalia</t>
   </si>
   <si>
     <t>Spencer</t>
@@ -874,7 +871,7 @@
     <t>Laura</t>
   </si>
   <si>
-    <t>Bradley</t>
+    <t xml:space="preserve">Benjamin </t>
   </si>
   <si>
     <t>Jarrod</t>
@@ -898,7 +895,7 @@
     <t>Adam</t>
   </si>
   <si>
-    <t>Abrams</t>
+    <t>Moore</t>
   </si>
   <si>
     <t>Adamson</t>
@@ -1612,7 +1609,7 @@
     <t>McCord</t>
   </si>
   <si>
-    <t>Miller</t>
+    <t>Seamon</t>
   </si>
   <si>
     <t>Moskowitz</t>
@@ -1645,7 +1642,7 @@
     <t>Rychlak</t>
   </si>
   <si>
-    <t>Shannon</t>
+    <t>Priester</t>
   </si>
   <si>
     <t>Sitkoff</t>
@@ -2433,7 +2430,7 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2">
         <v>1001</v>
@@ -2442,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2453,7 +2450,7 @@
         <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3">
         <v>1002</v>
@@ -2462,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2473,7 +2470,7 @@
         <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D4">
         <v>1239</v>
@@ -2482,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2493,7 +2490,7 @@
         <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D5">
         <v>1003</v>
@@ -2502,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2513,7 +2510,7 @@
         <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D6">
         <v>1067</v>
@@ -2522,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2533,7 +2530,7 @@
         <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D7">
         <v>1211</v>
@@ -2542,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2553,7 +2550,7 @@
         <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D8">
         <v>1258</v>
@@ -2562,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2573,7 +2570,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D9">
         <v>1004</v>
@@ -2582,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2593,7 +2590,7 @@
         <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D10">
         <v>1018</v>
@@ -2602,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2613,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D11">
         <v>1045</v>
@@ -2622,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2633,7 +2630,7 @@
         <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D12">
         <v>1084</v>
@@ -2642,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2653,7 +2650,7 @@
         <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D13">
         <v>1139</v>
@@ -2662,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2673,7 +2670,7 @@
         <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D14">
         <v>1167</v>
@@ -2682,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2693,7 +2690,7 @@
         <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D15">
         <v>1005</v>
@@ -2702,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2713,7 +2710,7 @@
         <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D16">
         <v>1070</v>
@@ -2722,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2733,7 +2730,7 @@
         <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D17">
         <v>1088</v>
@@ -2742,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2753,7 +2750,7 @@
         <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D18">
         <v>1118</v>
@@ -2762,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2773,7 +2770,7 @@
         <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D19">
         <v>1160</v>
@@ -2782,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2793,7 +2790,7 @@
         <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D20">
         <v>1174</v>
@@ -2802,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2813,7 +2810,7 @@
         <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D21">
         <v>1194</v>
@@ -2822,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2833,7 +2830,7 @@
         <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D22">
         <v>1250</v>
@@ -2842,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2853,7 +2850,7 @@
         <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D23">
         <v>1006</v>
@@ -2862,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2873,7 +2870,7 @@
         <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D24">
         <v>1158</v>
@@ -2882,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2893,7 +2890,7 @@
         <v>141</v>
       </c>
       <c r="C25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D25">
         <v>1233</v>
@@ -2902,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2913,7 +2910,7 @@
         <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D26">
         <v>1007</v>
@@ -2922,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2933,7 +2930,7 @@
         <v>143</v>
       </c>
       <c r="C27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D27">
         <v>1008</v>
@@ -2942,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2953,7 +2950,7 @@
         <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D28">
         <v>1188</v>
@@ -2962,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2973,7 +2970,7 @@
         <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D29">
         <v>1009</v>
@@ -2982,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2993,7 +2990,7 @@
         <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D30">
         <v>1015</v>
@@ -3002,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3013,7 +3010,7 @@
         <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D31">
         <v>1055</v>
@@ -3022,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3033,7 +3030,7 @@
         <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D32">
         <v>1150</v>
@@ -3042,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3053,7 +3050,7 @@
         <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D33">
         <v>1010</v>
@@ -3062,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3073,7 +3070,7 @@
         <v>150</v>
       </c>
       <c r="C34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D34">
         <v>1023</v>
@@ -3082,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3093,7 +3090,7 @@
         <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D35">
         <v>1065</v>
@@ -3102,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3113,7 +3110,7 @@
         <v>152</v>
       </c>
       <c r="C36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D36">
         <v>1095</v>
@@ -3122,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3133,7 +3130,7 @@
         <v>153</v>
       </c>
       <c r="C37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D37">
         <v>1175</v>
@@ -3142,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3153,7 +3150,7 @@
         <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D38">
         <v>1218</v>
@@ -3162,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3173,7 +3170,7 @@
         <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D39">
         <v>1241</v>
@@ -3182,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3193,7 +3190,7 @@
         <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D40">
         <v>1011</v>
@@ -3202,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3213,7 +3210,7 @@
         <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D41">
         <v>1035</v>
@@ -3222,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3233,7 +3230,7 @@
         <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D42">
         <v>1240</v>
@@ -3242,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3253,7 +3250,7 @@
         <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D43">
         <v>1012</v>
@@ -3262,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3273,7 +3270,7 @@
         <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D44">
         <v>1027</v>
@@ -3282,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3293,7 +3290,7 @@
         <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D45">
         <v>1013</v>
@@ -3302,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3313,7 +3310,7 @@
         <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D46">
         <v>1050</v>
@@ -3322,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3333,7 +3330,7 @@
         <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D47">
         <v>1170</v>
@@ -3342,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3353,7 +3350,7 @@
         <v>162</v>
       </c>
       <c r="C48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D48">
         <v>1014</v>
@@ -3362,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3373,7 +3370,7 @@
         <v>163</v>
       </c>
       <c r="C49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D49">
         <v>1154</v>
@@ -3382,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3393,7 +3390,7 @@
         <v>164</v>
       </c>
       <c r="C50" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D50">
         <v>1016</v>
@@ -3402,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3410,10 +3407,10 @@
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D51">
         <v>1025</v>
@@ -3422,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3430,10 +3427,10 @@
         <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D52">
         <v>1256</v>
@@ -3442,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3450,10 +3447,10 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C53" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D53">
         <v>1017</v>
@@ -3462,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3473,7 +3470,7 @@
         <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D54">
         <v>1119</v>
@@ -3482,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3493,7 +3490,7 @@
         <v>133</v>
       </c>
       <c r="C55" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D55">
         <v>1019</v>
@@ -3502,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3510,10 +3507,10 @@
         <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D56">
         <v>1202</v>
@@ -3522,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3530,10 +3527,10 @@
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D57">
         <v>1020</v>
@@ -3542,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3550,10 +3547,10 @@
         <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D58">
         <v>1021</v>
@@ -3562,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3570,10 +3567,10 @@
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D59">
         <v>1127</v>
@@ -3582,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3590,10 +3587,10 @@
         <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D60">
         <v>1134</v>
@@ -3602,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3610,10 +3607,10 @@
         <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D61">
         <v>1141</v>
@@ -3622,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3630,10 +3627,10 @@
         <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D62">
         <v>1195</v>
@@ -3642,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3653,7 +3650,7 @@
         <v>153</v>
       </c>
       <c r="C63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D63">
         <v>1022</v>
@@ -3662,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3670,10 +3667,10 @@
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D64">
         <v>1024</v>
@@ -3682,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3693,7 +3690,7 @@
         <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D65">
         <v>1117</v>
@@ -3702,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3710,10 +3707,10 @@
         <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D66">
         <v>1130</v>
@@ -3722,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3730,10 +3727,10 @@
         <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D67">
         <v>1138</v>
@@ -3742,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3750,10 +3747,10 @@
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D68">
         <v>1152</v>
@@ -3762,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3770,10 +3767,10 @@
         <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D69">
         <v>1157</v>
@@ -3782,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3790,10 +3787,10 @@
         <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C70" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D70">
         <v>1186</v>
@@ -3802,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3810,10 +3807,10 @@
         <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D71">
         <v>1026</v>
@@ -3822,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3830,10 +3827,10 @@
         <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C72" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D72">
         <v>1169</v>
@@ -3842,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3853,7 +3850,7 @@
         <v>126</v>
       </c>
       <c r="C73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D73">
         <v>1207</v>
@@ -3862,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3870,10 +3867,10 @@
         <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C74" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D74">
         <v>1028</v>
@@ -3882,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3890,10 +3887,10 @@
         <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C75" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D75">
         <v>1066</v>
@@ -3902,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3910,10 +3907,10 @@
         <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D76">
         <v>1069</v>
@@ -3922,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3933,7 +3930,7 @@
         <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D77">
         <v>1178</v>
@@ -3942,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3950,10 +3947,10 @@
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C78" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D78">
         <v>1185</v>
@@ -3962,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3970,10 +3967,10 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D79">
         <v>1232</v>
@@ -3982,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3990,10 +3987,10 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D80">
         <v>1029</v>
@@ -4002,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4013,7 +4010,7 @@
         <v>149</v>
       </c>
       <c r="C81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D81">
         <v>1208</v>
@@ -4022,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4030,10 +4027,10 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C82" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D82">
         <v>1222</v>
@@ -4042,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4050,10 +4047,10 @@
         <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C83" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D83">
         <v>1265</v>
@@ -4062,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4070,10 +4067,10 @@
         <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C84" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D84">
         <v>1273</v>
@@ -4082,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4093,7 +4090,7 @@
         <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D85">
         <v>1030</v>
@@ -4102,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4113,7 +4110,7 @@
         <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D86">
         <v>1031</v>
@@ -4122,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4130,10 +4127,10 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D87">
         <v>1144</v>
@@ -4142,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4150,10 +4147,10 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C88" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D88">
         <v>1032</v>
@@ -4162,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4170,10 +4167,10 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C89" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D89">
         <v>1064</v>
@@ -4182,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4190,10 +4187,10 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D90">
         <v>1033</v>
@@ -4202,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4210,10 +4207,10 @@
         <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C91" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D91">
         <v>1051</v>
@@ -4222,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4230,10 +4227,10 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C92" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D92">
         <v>1072</v>
@@ -4242,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4250,10 +4247,10 @@
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D93">
         <v>1143</v>
@@ -4262,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4270,10 +4267,10 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C94" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D94">
         <v>1203</v>
@@ -4282,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4290,10 +4287,10 @@
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D95">
         <v>1216</v>
@@ -4302,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4310,10 +4307,10 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D96">
         <v>1231</v>
@@ -4322,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4333,7 +4330,7 @@
         <v>134</v>
       </c>
       <c r="C97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D97">
         <v>1235</v>
@@ -4342,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4353,7 +4350,7 @@
         <v>134</v>
       </c>
       <c r="C98" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D98">
         <v>1034</v>
@@ -4362,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4370,10 +4367,10 @@
         <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C99" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D99">
         <v>1111</v>
@@ -4382,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4393,7 +4390,7 @@
         <v>134</v>
       </c>
       <c r="C100" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D100">
         <v>1244</v>
@@ -4402,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4410,10 +4407,10 @@
         <v>36</v>
       </c>
       <c r="B101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C101" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D101">
         <v>1036</v>
@@ -4422,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4433,7 +4430,7 @@
         <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D102">
         <v>1075</v>
@@ -4442,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4450,10 +4447,10 @@
         <v>36</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C103" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D103">
         <v>1155</v>
@@ -4462,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4470,10 +4467,10 @@
         <v>36</v>
       </c>
       <c r="B104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C104" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D104">
         <v>1210</v>
@@ -4482,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4490,10 +4487,10 @@
         <v>36</v>
       </c>
       <c r="B105" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D105">
         <v>1243</v>
@@ -4502,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4510,10 +4507,10 @@
         <v>36</v>
       </c>
       <c r="B106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D106">
         <v>1252</v>
@@ -4522,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4530,10 +4527,10 @@
         <v>37</v>
       </c>
       <c r="B107" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C107" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D107">
         <v>1037</v>
@@ -4542,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4550,10 +4547,10 @@
         <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C108" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D108">
         <v>1085</v>
@@ -4562,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4570,10 +4567,10 @@
         <v>37</v>
       </c>
       <c r="B109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C109" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D109">
         <v>1181</v>
@@ -4582,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4593,7 +4590,7 @@
         <v>133</v>
       </c>
       <c r="C110" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D110">
         <v>1038</v>
@@ -4602,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4613,7 +4610,7 @@
         <v>153</v>
       </c>
       <c r="C111" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D111">
         <v>1104</v>
@@ -4622,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4630,10 +4627,10 @@
         <v>38</v>
       </c>
       <c r="B112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C112" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D112">
         <v>1266</v>
@@ -4642,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4653,7 +4650,7 @@
         <v>124</v>
       </c>
       <c r="C113" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D113">
         <v>1039</v>
@@ -4662,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4673,7 +4670,7 @@
         <v>128</v>
       </c>
       <c r="C114" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D114">
         <v>1047</v>
@@ -4682,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4690,10 +4687,10 @@
         <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C115" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D115">
         <v>1206</v>
@@ -4702,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4710,10 +4707,10 @@
         <v>40</v>
       </c>
       <c r="B116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C116" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D116">
         <v>1040</v>
@@ -4722,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4730,10 +4727,10 @@
         <v>40</v>
       </c>
       <c r="B117" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C117" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D117">
         <v>1041</v>
@@ -4742,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4750,10 +4747,10 @@
         <v>41</v>
       </c>
       <c r="B118" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D118">
         <v>1042</v>
@@ -4762,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4773,7 +4770,7 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D119">
         <v>1091</v>
@@ -4782,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4790,10 +4787,10 @@
         <v>41</v>
       </c>
       <c r="B120" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C120" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D120">
         <v>1179</v>
@@ -4802,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4810,10 +4807,10 @@
         <v>41</v>
       </c>
       <c r="B121" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C121" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D121">
         <v>1196</v>
@@ -4822,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4830,10 +4827,10 @@
         <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C122" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D122">
         <v>1274</v>
@@ -4842,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4853,7 +4850,7 @@
         <v>134</v>
       </c>
       <c r="C123" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D123">
         <v>1043</v>
@@ -4862,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4870,10 +4867,10 @@
         <v>42</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C124" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D124">
         <v>1261</v>
@@ -4882,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4893,7 +4890,7 @@
         <v>159</v>
       </c>
       <c r="C125" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D125">
         <v>1044</v>
@@ -4902,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4910,10 +4907,10 @@
         <v>43</v>
       </c>
       <c r="B126" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C126" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D126">
         <v>1048</v>
@@ -4922,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4930,10 +4927,10 @@
         <v>43</v>
       </c>
       <c r="B127" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C127" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D127">
         <v>1073</v>
@@ -4942,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4953,7 +4950,7 @@
         <v>155</v>
       </c>
       <c r="C128" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D128">
         <v>1145</v>
@@ -4962,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4970,10 +4967,10 @@
         <v>43</v>
       </c>
       <c r="B129" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C129" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D129">
         <v>1205</v>
@@ -4982,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4990,10 +4987,10 @@
         <v>43</v>
       </c>
       <c r="B130" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C130" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D130">
         <v>1270</v>
@@ -5002,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5010,10 +5007,10 @@
         <v>44</v>
       </c>
       <c r="B131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C131" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D131">
         <v>1046</v>
@@ -5022,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5033,7 +5030,7 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D132">
         <v>1109</v>
@@ -5042,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5050,10 +5047,10 @@
         <v>44</v>
       </c>
       <c r="B133" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C133" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D133">
         <v>1209</v>
@@ -5062,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5070,10 +5067,10 @@
         <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C134" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D134">
         <v>1049</v>
@@ -5082,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5090,10 +5087,10 @@
         <v>46</v>
       </c>
       <c r="B135" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C135" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D135">
         <v>1052</v>
@@ -5102,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5110,10 +5107,10 @@
         <v>47</v>
       </c>
       <c r="B136" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C136" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D136">
         <v>1053</v>
@@ -5122,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5130,10 +5127,10 @@
         <v>48</v>
       </c>
       <c r="B137" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C137" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D137">
         <v>1054</v>
@@ -5142,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5153,7 +5150,7 @@
         <v>155</v>
       </c>
       <c r="C138" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D138">
         <v>1056</v>
@@ -5162,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5170,10 +5167,10 @@
         <v>49</v>
       </c>
       <c r="B139" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D139">
         <v>1101</v>
@@ -5182,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5193,7 +5190,7 @@
         <v>133</v>
       </c>
       <c r="C140" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D140">
         <v>1120</v>
@@ -5202,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5210,10 +5207,10 @@
         <v>49</v>
       </c>
       <c r="B141" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C141" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D141">
         <v>1161</v>
@@ -5222,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5230,7 +5227,7 @@
         <v>49</v>
       </c>
       <c r="B142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C142" t="s">
         <v>127</v>
@@ -5242,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5250,7 +5247,7 @@
         <v>49</v>
       </c>
       <c r="B143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C143" t="s">
         <v>127</v>
@@ -5262,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5270,10 +5267,10 @@
         <v>50</v>
       </c>
       <c r="B144" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C144" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D144">
         <v>1057</v>
@@ -5282,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5290,10 +5287,10 @@
         <v>50</v>
       </c>
       <c r="B145" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C145" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D145">
         <v>1093</v>
@@ -5302,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5310,10 +5307,10 @@
         <v>50</v>
       </c>
       <c r="B146" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C146" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D146">
         <v>1133</v>
@@ -5322,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5330,10 +5327,10 @@
         <v>50</v>
       </c>
       <c r="B147" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C147" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D147">
         <v>1142</v>
@@ -5342,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5353,7 +5350,7 @@
         <v>124</v>
       </c>
       <c r="C148" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D148">
         <v>1166</v>
@@ -5362,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5370,10 +5367,10 @@
         <v>50</v>
       </c>
       <c r="B149" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C149" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D149">
         <v>1234</v>
@@ -5382,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5390,10 +5387,10 @@
         <v>50</v>
       </c>
       <c r="B150" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C150" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D150">
         <v>1254</v>
@@ -5402,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5410,10 +5407,10 @@
         <v>51</v>
       </c>
       <c r="B151" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C151" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D151">
         <v>1058</v>
@@ -5422,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5430,10 +5427,10 @@
         <v>51</v>
       </c>
       <c r="B152" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C152" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D152">
         <v>1197</v>
@@ -5442,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5450,10 +5447,10 @@
         <v>52</v>
       </c>
       <c r="B153" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C153" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D153">
         <v>1059</v>
@@ -5462,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5473,7 +5470,7 @@
         <v>133</v>
       </c>
       <c r="C154" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D154">
         <v>1074</v>
@@ -5482,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5490,10 +5487,10 @@
         <v>52</v>
       </c>
       <c r="B155" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C155" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D155">
         <v>1078</v>
@@ -5502,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5510,10 +5507,10 @@
         <v>52</v>
       </c>
       <c r="B156" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C156" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D156">
         <v>1226</v>
@@ -5522,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5530,10 +5527,10 @@
         <v>52</v>
       </c>
       <c r="B157" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C157" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D157">
         <v>1060</v>
@@ -5542,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5550,10 +5547,10 @@
         <v>53</v>
       </c>
       <c r="B158" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C158" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D158">
         <v>1061</v>
@@ -5562,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5570,10 +5567,10 @@
         <v>54</v>
       </c>
       <c r="B159" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C159" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D159">
         <v>1062</v>
@@ -5582,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5590,10 +5587,10 @@
         <v>54</v>
       </c>
       <c r="B160" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C160" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D160">
         <v>1063</v>
@@ -5602,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5610,10 +5607,10 @@
         <v>54</v>
       </c>
       <c r="B161" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C161" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D161">
         <v>1123</v>
@@ -5622,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5633,7 +5630,7 @@
         <v>133</v>
       </c>
       <c r="C162" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D162">
         <v>1068</v>
@@ -5642,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5650,10 +5647,10 @@
         <v>56</v>
       </c>
       <c r="B163" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D163">
         <v>1071</v>
@@ -5662,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5673,7 +5670,7 @@
         <v>122</v>
       </c>
       <c r="C164" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D164">
         <v>1076</v>
@@ -5682,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5690,10 +5687,10 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C165" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D165">
         <v>1193</v>
@@ -5702,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5710,10 +5707,10 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C166" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D166">
         <v>1204</v>
@@ -5722,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5730,10 +5727,10 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C167" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D167">
         <v>1268</v>
@@ -5742,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5750,10 +5747,10 @@
         <v>57</v>
       </c>
       <c r="B168" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C168" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D168">
         <v>1077</v>
@@ -5762,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5770,10 +5767,10 @@
         <v>58</v>
       </c>
       <c r="B169" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C169" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D169">
         <v>1079</v>
@@ -5782,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5790,10 +5787,10 @@
         <v>59</v>
       </c>
       <c r="B170" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C170" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D170">
         <v>1080</v>
@@ -5802,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5810,10 +5807,10 @@
         <v>59</v>
       </c>
       <c r="B171" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C171" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D171">
         <v>1116</v>
@@ -5822,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5830,10 +5827,10 @@
         <v>59</v>
       </c>
       <c r="B172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D172">
         <v>1131</v>
@@ -5842,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5850,10 +5847,10 @@
         <v>59</v>
       </c>
       <c r="B173" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C173" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D173">
         <v>1213</v>
@@ -5862,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5870,10 +5867,10 @@
         <v>59</v>
       </c>
       <c r="B174" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C174" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D174">
         <v>1220</v>
@@ -5882,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5890,10 +5887,10 @@
         <v>60</v>
       </c>
       <c r="B175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D175">
         <v>1081</v>
@@ -5902,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5910,10 +5907,10 @@
         <v>61</v>
       </c>
       <c r="B176" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C176" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D176">
         <v>1082</v>
@@ -5922,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5930,10 +5927,10 @@
         <v>61</v>
       </c>
       <c r="B177" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C177" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D177">
         <v>1162</v>
@@ -5942,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5950,10 +5947,10 @@
         <v>61</v>
       </c>
       <c r="B178" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C178" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D178">
         <v>1237</v>
@@ -5962,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5973,7 +5970,7 @@
         <v>122</v>
       </c>
       <c r="C179" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D179">
         <v>1083</v>
@@ -5982,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5993,7 +5990,7 @@
         <v>163</v>
       </c>
       <c r="C180" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D180">
         <v>1086</v>
@@ -6002,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6013,7 +6010,7 @@
         <v>153</v>
       </c>
       <c r="C181" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D181">
         <v>1214</v>
@@ -6022,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6030,10 +6027,10 @@
         <v>64</v>
       </c>
       <c r="B182" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C182" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D182">
         <v>1087</v>
@@ -6042,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6050,10 +6047,10 @@
         <v>64</v>
       </c>
       <c r="B183" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C183" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D183">
         <v>1271</v>
@@ -6062,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6070,10 +6067,10 @@
         <v>65</v>
       </c>
       <c r="B184" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C184" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D184">
         <v>1089</v>
@@ -6082,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6090,10 +6087,10 @@
         <v>66</v>
       </c>
       <c r="B185" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C185" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D185">
         <v>1090</v>
@@ -6102,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6110,10 +6107,10 @@
         <v>66</v>
       </c>
       <c r="B186" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C186" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D186">
         <v>1217</v>
@@ -6122,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6130,10 +6127,10 @@
         <v>67</v>
       </c>
       <c r="B187" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C187" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D187">
         <v>1092</v>
@@ -6142,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6153,7 +6150,7 @@
         <v>122</v>
       </c>
       <c r="C188" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D188">
         <v>1094</v>
@@ -6162,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6170,10 +6167,10 @@
         <v>68</v>
       </c>
       <c r="B189" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C189" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D189">
         <v>1096</v>
@@ -6182,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6190,10 +6187,10 @@
         <v>68</v>
       </c>
       <c r="B190" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C190" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D190">
         <v>1115</v>
@@ -6202,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6210,10 +6207,10 @@
         <v>68</v>
       </c>
       <c r="B191" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C191" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D191">
         <v>1269</v>
@@ -6222,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6230,10 +6227,10 @@
         <v>69</v>
       </c>
       <c r="B192" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C192" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D192">
         <v>1097</v>
@@ -6242,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6250,10 +6247,10 @@
         <v>69</v>
       </c>
       <c r="B193" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C193" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D193">
         <v>1146</v>
@@ -6262,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6270,10 +6267,10 @@
         <v>69</v>
       </c>
       <c r="B194" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C194" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D194">
         <v>1247</v>
@@ -6282,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6293,7 +6290,7 @@
         <v>134</v>
       </c>
       <c r="C195" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D195">
         <v>1098</v>
@@ -6302,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6310,10 +6307,10 @@
         <v>70</v>
       </c>
       <c r="B196" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C196" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D196">
         <v>1132</v>
@@ -6322,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6330,10 +6327,10 @@
         <v>70</v>
       </c>
       <c r="B197" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C197" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D197">
         <v>1168</v>
@@ -6342,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6350,10 +6347,10 @@
         <v>70</v>
       </c>
       <c r="B198" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C198" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D198">
         <v>1187</v>
@@ -6362,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6370,7 +6367,7 @@
         <v>70</v>
       </c>
       <c r="B199" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C199" t="s">
         <v>127</v>
@@ -6382,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6390,10 +6387,10 @@
         <v>71</v>
       </c>
       <c r="B200" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C200" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D200">
         <v>1099</v>
@@ -6402,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6410,10 +6407,10 @@
         <v>71</v>
       </c>
       <c r="B201" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C201" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D201">
         <v>1184</v>
@@ -6422,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6430,10 +6427,10 @@
         <v>71</v>
       </c>
       <c r="B202" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C202" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D202">
         <v>1200</v>
@@ -6442,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6450,10 +6447,10 @@
         <v>72</v>
       </c>
       <c r="B203" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C203" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D203">
         <v>1100</v>
@@ -6462,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6473,7 +6470,7 @@
         <v>134</v>
       </c>
       <c r="C204" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D204">
         <v>1180</v>
@@ -6482,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6493,7 +6490,7 @@
         <v>134</v>
       </c>
       <c r="C205" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D205">
         <v>1102</v>
@@ -6502,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6510,10 +6507,10 @@
         <v>73</v>
       </c>
       <c r="B206" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C206" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D206">
         <v>1225</v>
@@ -6522,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6530,10 +6527,10 @@
         <v>32</v>
       </c>
       <c r="B207" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C207" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D207">
         <v>1103</v>
@@ -6542,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6550,10 +6547,10 @@
         <v>74</v>
       </c>
       <c r="B208" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C208" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D208">
         <v>1105</v>
@@ -6562,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6570,10 +6567,10 @@
         <v>75</v>
       </c>
       <c r="B209" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C209" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D209">
         <v>1106</v>
@@ -6582,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6590,10 +6587,10 @@
         <v>75</v>
       </c>
       <c r="B210" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C210" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D210">
         <v>1124</v>
@@ -6602,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6610,10 +6607,10 @@
         <v>75</v>
       </c>
       <c r="B211" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C211" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D211">
         <v>1246</v>
@@ -6622,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6633,7 +6630,7 @@
         <v>130</v>
       </c>
       <c r="C212" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D212">
         <v>1107</v>
@@ -6642,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6653,7 +6650,7 @@
         <v>133</v>
       </c>
       <c r="C213" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D213">
         <v>1108</v>
@@ -6662,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6670,10 +6667,10 @@
         <v>77</v>
       </c>
       <c r="B214" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C214" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D214">
         <v>1153</v>
@@ -6682,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6690,10 +6687,10 @@
         <v>77</v>
       </c>
       <c r="B215" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C215" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D215">
         <v>1263</v>
@@ -6702,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6710,10 +6707,10 @@
         <v>78</v>
       </c>
       <c r="B216" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C216" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D216">
         <v>1110</v>
@@ -6722,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6733,7 +6730,7 @@
         <v>130</v>
       </c>
       <c r="C217" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D217">
         <v>1224</v>
@@ -6742,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6753,7 +6750,7 @@
         <v>153</v>
       </c>
       <c r="C218" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D218">
         <v>1236</v>
@@ -6762,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6770,10 +6767,10 @@
         <v>78</v>
       </c>
       <c r="B219" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C219" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D219">
         <v>1260</v>
@@ -6782,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6790,10 +6787,10 @@
         <v>79</v>
       </c>
       <c r="B220" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C220" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D220">
         <v>1112</v>
@@ -6802,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6813,7 +6810,7 @@
         <v>132</v>
       </c>
       <c r="C221" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D221">
         <v>1173</v>
@@ -6822,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6830,10 +6827,10 @@
         <v>79</v>
       </c>
       <c r="B222" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C222" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D222">
         <v>1215</v>
@@ -6842,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6850,10 +6847,10 @@
         <v>79</v>
       </c>
       <c r="B223" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C223" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D223">
         <v>1113</v>
@@ -6862,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6870,10 +6867,10 @@
         <v>80</v>
       </c>
       <c r="B224" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C224" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D224">
         <v>1114</v>
@@ -6882,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6890,10 +6887,10 @@
         <v>81</v>
       </c>
       <c r="B225" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C225" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D225">
         <v>1121</v>
@@ -6902,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6910,10 +6907,10 @@
         <v>82</v>
       </c>
       <c r="B226" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C226" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D226">
         <v>1122</v>
@@ -6922,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6930,10 +6927,10 @@
         <v>83</v>
       </c>
       <c r="B227" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C227" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D227">
         <v>1125</v>
@@ -6942,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6950,10 +6947,10 @@
         <v>84</v>
       </c>
       <c r="B228" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C228" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D228">
         <v>1126</v>
@@ -6962,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6970,10 +6967,10 @@
         <v>85</v>
       </c>
       <c r="B229" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C229" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D229">
         <v>1128</v>
@@ -6982,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6990,10 +6987,10 @@
         <v>85</v>
       </c>
       <c r="B230" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D230">
         <v>1159</v>
@@ -7002,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="G230" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7010,10 +7007,10 @@
         <v>86</v>
       </c>
       <c r="B231" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C231" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D231">
         <v>1129</v>
@@ -7022,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7030,10 +7027,10 @@
         <v>86</v>
       </c>
       <c r="B232" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C232" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D232">
         <v>1136</v>
@@ -7042,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="G232" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7050,10 +7047,10 @@
         <v>86</v>
       </c>
       <c r="B233" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C233" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D233">
         <v>1156</v>
@@ -7062,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7070,10 +7067,10 @@
         <v>87</v>
       </c>
       <c r="B234" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C234" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D234">
         <v>1135</v>
@@ -7082,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7090,10 +7087,10 @@
         <v>87</v>
       </c>
       <c r="B235" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C235" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D235">
         <v>1163</v>
@@ -7102,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -7110,10 +7107,10 @@
         <v>87</v>
       </c>
       <c r="B236" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C236" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D236">
         <v>1259</v>
@@ -7122,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="G236" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7130,10 +7127,10 @@
         <v>87</v>
       </c>
       <c r="B237" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C237" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D237">
         <v>1272</v>
@@ -7142,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="G237" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7153,7 +7150,7 @@
         <v>153</v>
       </c>
       <c r="C238" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D238">
         <v>1137</v>
@@ -7162,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7170,10 +7167,10 @@
         <v>88</v>
       </c>
       <c r="B239" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C239" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D239">
         <v>1189</v>
@@ -7182,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7193,7 +7190,7 @@
         <v>144</v>
       </c>
       <c r="C240" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D240">
         <v>1140</v>
@@ -7202,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="G240" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7213,7 +7210,7 @@
         <v>150</v>
       </c>
       <c r="C241" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D241">
         <v>1183</v>
@@ -7222,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="G241" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7230,10 +7227,10 @@
         <v>89</v>
       </c>
       <c r="B242" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C242" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D242">
         <v>1223</v>
@@ -7242,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="G242" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7250,10 +7247,10 @@
         <v>89</v>
       </c>
       <c r="B243" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C243" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D243">
         <v>1267</v>
@@ -7262,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7270,10 +7267,10 @@
         <v>90</v>
       </c>
       <c r="B244" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C244" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D244">
         <v>1147</v>
@@ -7282,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7290,10 +7287,10 @@
         <v>90</v>
       </c>
       <c r="B245" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C245" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D245">
         <v>1249</v>
@@ -7302,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7313,7 +7310,7 @@
         <v>153</v>
       </c>
       <c r="C246" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D246">
         <v>1148</v>
@@ -7322,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="G246" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7330,10 +7327,10 @@
         <v>91</v>
       </c>
       <c r="B247" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C247" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D247">
         <v>1251</v>
@@ -7342,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7350,10 +7347,10 @@
         <v>92</v>
       </c>
       <c r="B248" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C248" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D248">
         <v>1149</v>
@@ -7362,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="G248" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7373,7 +7370,7 @@
         <v>134</v>
       </c>
       <c r="C249" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D249">
         <v>1151</v>
@@ -7382,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="G249" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7390,10 +7387,10 @@
         <v>94</v>
       </c>
       <c r="B250" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C250" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D250">
         <v>1164</v>
@@ -7402,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7422,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="G251" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7430,10 +7427,10 @@
         <v>95</v>
       </c>
       <c r="B252" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C252" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D252">
         <v>1165</v>
@@ -7442,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="G252" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7450,10 +7447,10 @@
         <v>95</v>
       </c>
       <c r="B253" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C253" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D253">
         <v>1264</v>
@@ -7462,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="G253" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -7473,7 +7470,7 @@
         <v>135</v>
       </c>
       <c r="C254" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D254">
         <v>1171</v>
@@ -7482,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="G254" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7493,7 +7490,7 @@
         <v>122</v>
       </c>
       <c r="C255" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D255">
         <v>1262</v>
@@ -7502,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7513,7 +7510,7 @@
         <v>122</v>
       </c>
       <c r="C256" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D256">
         <v>1172</v>
@@ -7522,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="G256" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7530,10 +7527,10 @@
         <v>98</v>
       </c>
       <c r="B257" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C257" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D257">
         <v>1177</v>
@@ -7542,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -7550,10 +7547,10 @@
         <v>99</v>
       </c>
       <c r="B258" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C258" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D258">
         <v>1182</v>
@@ -7562,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7570,10 +7567,10 @@
         <v>100</v>
       </c>
       <c r="B259" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C259" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D259">
         <v>1190</v>
@@ -7582,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -7593,7 +7590,7 @@
         <v>122</v>
       </c>
       <c r="C260" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D260">
         <v>1253</v>
@@ -7602,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7610,10 +7607,10 @@
         <v>101</v>
       </c>
       <c r="B261" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C261" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D261">
         <v>1191</v>
@@ -7622,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7630,10 +7627,10 @@
         <v>102</v>
       </c>
       <c r="B262" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C262" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D262">
         <v>1192</v>
@@ -7642,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="G262" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -7650,10 +7647,10 @@
         <v>103</v>
       </c>
       <c r="B263" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C263" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D263">
         <v>1198</v>
@@ -7662,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="G263" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -7670,10 +7667,10 @@
         <v>104</v>
       </c>
       <c r="B264" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C264" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D264">
         <v>1199</v>
@@ -7682,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="G264" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7690,10 +7687,10 @@
         <v>105</v>
       </c>
       <c r="B265" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C265" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D265">
         <v>1201</v>
@@ -7702,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="G265" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -7710,10 +7707,10 @@
         <v>106</v>
       </c>
       <c r="B266" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C266" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D266">
         <v>1212</v>
@@ -7722,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -7730,10 +7727,10 @@
         <v>107</v>
       </c>
       <c r="B267" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C267" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D267">
         <v>1219</v>
@@ -7742,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="G267" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -7750,10 +7747,10 @@
         <v>108</v>
       </c>
       <c r="B268" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C268" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D268">
         <v>1221</v>
@@ -7762,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -7770,10 +7767,10 @@
         <v>109</v>
       </c>
       <c r="B269" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C269" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D269">
         <v>1230</v>
@@ -7782,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="G269" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -7790,10 +7787,10 @@
         <v>110</v>
       </c>
       <c r="B270" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C270" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D270">
         <v>1238</v>
@@ -7802,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="G270" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -7810,10 +7807,10 @@
         <v>111</v>
       </c>
       <c r="B271" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C271" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D271">
         <v>1242</v>
@@ -7822,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -7830,10 +7827,10 @@
         <v>112</v>
       </c>
       <c r="B272" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C272" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D272">
         <v>1245</v>
@@ -7842,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -7850,10 +7847,10 @@
         <v>112</v>
       </c>
       <c r="B273" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C273" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D273">
         <v>1276</v>
@@ -7862,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -7870,10 +7867,10 @@
         <v>113</v>
       </c>
       <c r="B274" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C274" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D274">
         <v>1248</v>
@@ -7882,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -7890,10 +7887,10 @@
         <v>114</v>
       </c>
       <c r="B275" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C275" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D275">
         <v>1255</v>
@@ -7902,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="G275" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -7910,10 +7907,10 @@
         <v>115</v>
       </c>
       <c r="B276" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C276" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D276">
         <v>1257</v>
@@ -7922,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="G276" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -7930,10 +7927,10 @@
         <v>116</v>
       </c>
       <c r="B277" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C277" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D277">
         <v>1275</v>
@@ -7942,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -7950,10 +7947,10 @@
         <v>117</v>
       </c>
       <c r="B278" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C278" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D278">
         <v>1277</v>
@@ -7962,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="G278" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -7970,10 +7967,10 @@
         <v>118</v>
       </c>
       <c r="B279" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C279" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D279">
         <v>1278</v>
@@ -7982,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -7990,10 +7987,10 @@
         <v>119</v>
       </c>
       <c r="B280" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C280" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D280">
         <v>1279</v>
@@ -8002,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="G280" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/data/a_working/control.xlsx
+++ b/data/a_working/control.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="677">
   <si>
     <t>Short URL Origin</t>
   </si>
@@ -376,6 +376,9 @@
     <t>lls.edu</t>
   </si>
   <si>
+    <t>nd.edu</t>
+  </si>
+  <si>
     <t>Andrew</t>
   </si>
   <si>
@@ -895,6 +898,9 @@
     <t>Adam</t>
   </si>
   <si>
+    <t>Julian</t>
+  </si>
+  <si>
     <t>Moore</t>
   </si>
   <si>
@@ -1678,6 +1684,9 @@
     <t>Zimmerman</t>
   </si>
   <si>
+    <t>Velasco</t>
+  </si>
+  <si>
     <t>University of Detroit Mercy School of Law</t>
   </si>
   <si>
@@ -2033,6 +2042,9 @@
   </si>
   <si>
     <t>Loyola Law School Los Angeles</t>
+  </si>
+  <si>
+    <t>Notre Dame Law School</t>
   </si>
 </sst>
 </file>
@@ -2390,7 +2402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H280"/>
+  <dimension ref="A1:H281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2427,10 +2439,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D2">
         <v>1001</v>
@@ -2439,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2447,10 +2459,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D3">
         <v>1002</v>
@@ -2459,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2467,10 +2479,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D4">
         <v>1239</v>
@@ -2479,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2487,10 +2499,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D5">
         <v>1003</v>
@@ -2499,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2507,10 +2519,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D6">
         <v>1067</v>
@@ -2519,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2527,10 +2539,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D7">
         <v>1211</v>
@@ -2539,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2547,10 +2559,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D8">
         <v>1258</v>
@@ -2559,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2567,10 +2579,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D9">
         <v>1004</v>
@@ -2579,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2587,10 +2599,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D10">
         <v>1018</v>
@@ -2599,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2607,10 +2619,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D11">
         <v>1045</v>
@@ -2619,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2627,10 +2639,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D12">
         <v>1084</v>
@@ -2639,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2647,10 +2659,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D13">
         <v>1139</v>
@@ -2659,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2667,10 +2679,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D14">
         <v>1167</v>
@@ -2679,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2687,10 +2699,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D15">
         <v>1005</v>
@@ -2699,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2707,10 +2719,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D16">
         <v>1070</v>
@@ -2719,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2727,10 +2739,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D17">
         <v>1088</v>
@@ -2739,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2747,10 +2759,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D18">
         <v>1118</v>
@@ -2759,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2767,10 +2779,10 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D19">
         <v>1160</v>
@@ -2779,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2787,10 +2799,10 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D20">
         <v>1174</v>
@@ -2799,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2807,10 +2819,10 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D21">
         <v>1194</v>
@@ -2819,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2827,10 +2839,10 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D22">
         <v>1250</v>
@@ -2839,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2847,10 +2859,10 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D23">
         <v>1006</v>
@@ -2859,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2867,10 +2879,10 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D24">
         <v>1158</v>
@@ -2879,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2887,10 +2899,10 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D25">
         <v>1233</v>
@@ -2899,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2907,10 +2919,10 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D26">
         <v>1007</v>
@@ -2919,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2927,10 +2939,10 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D27">
         <v>1008</v>
@@ -2939,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2947,10 +2959,10 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D28">
         <v>1188</v>
@@ -2959,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2967,10 +2979,10 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D29">
         <v>1009</v>
@@ -2979,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2987,10 +2999,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D30">
         <v>1015</v>
@@ -2999,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3007,10 +3019,10 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D31">
         <v>1055</v>
@@ -3019,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3027,10 +3039,10 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D32">
         <v>1150</v>
@@ -3039,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3047,10 +3059,10 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D33">
         <v>1010</v>
@@ -3059,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3067,10 +3079,10 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C34" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D34">
         <v>1023</v>
@@ -3079,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3087,10 +3099,10 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D35">
         <v>1065</v>
@@ -3099,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3107,10 +3119,10 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D36">
         <v>1095</v>
@@ -3119,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3127,10 +3139,10 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C37" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D37">
         <v>1175</v>
@@ -3139,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3147,10 +3159,10 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D38">
         <v>1218</v>
@@ -3159,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3167,10 +3179,10 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C39" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D39">
         <v>1241</v>
@@ -3179,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3187,10 +3199,10 @@
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D40">
         <v>1011</v>
@@ -3199,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3207,10 +3219,10 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C41" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D41">
         <v>1035</v>
@@ -3219,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3227,10 +3239,10 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D42">
         <v>1240</v>
@@ -3239,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3247,10 +3259,10 @@
         <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D43">
         <v>1012</v>
@@ -3259,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3267,10 +3279,10 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D44">
         <v>1027</v>
@@ -3279,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3287,10 +3299,10 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D45">
         <v>1013</v>
@@ -3299,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3307,10 +3319,10 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D46">
         <v>1050</v>
@@ -3319,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3327,10 +3339,10 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D47">
         <v>1170</v>
@@ -3339,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3347,10 +3359,10 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D48">
         <v>1014</v>
@@ -3359,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3367,10 +3379,10 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D49">
         <v>1154</v>
@@ -3379,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3387,10 +3399,10 @@
         <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D50">
         <v>1016</v>
@@ -3399,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3407,10 +3419,10 @@
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D51">
         <v>1025</v>
@@ -3419,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3427,10 +3439,10 @@
         <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C52" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D52">
         <v>1256</v>
@@ -3439,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3447,10 +3459,10 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D53">
         <v>1017</v>
@@ -3459,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3467,10 +3479,10 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D54">
         <v>1119</v>
@@ -3479,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3487,10 +3499,10 @@
         <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D55">
         <v>1019</v>
@@ -3499,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3507,10 +3519,10 @@
         <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D56">
         <v>1202</v>
@@ -3519,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3527,10 +3539,10 @@
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D57">
         <v>1020</v>
@@ -3539,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3547,10 +3559,10 @@
         <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D58">
         <v>1021</v>
@@ -3559,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3567,10 +3579,10 @@
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C59" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D59">
         <v>1127</v>
@@ -3579,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3587,10 +3599,10 @@
         <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D60">
         <v>1134</v>
@@ -3599,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3607,10 +3619,10 @@
         <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C61" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D61">
         <v>1141</v>
@@ -3619,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3627,10 +3639,10 @@
         <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C62" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D62">
         <v>1195</v>
@@ -3639,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3647,10 +3659,10 @@
         <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D63">
         <v>1022</v>
@@ -3659,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3667,10 +3679,10 @@
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C64" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D64">
         <v>1024</v>
@@ -3679,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3687,10 +3699,10 @@
         <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D65">
         <v>1117</v>
@@ -3699,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3707,10 +3719,10 @@
         <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D66">
         <v>1130</v>
@@ -3719,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3727,10 +3739,10 @@
         <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D67">
         <v>1138</v>
@@ -3739,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3747,10 +3759,10 @@
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C68" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D68">
         <v>1152</v>
@@ -3759,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3767,10 +3779,10 @@
         <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D69">
         <v>1157</v>
@@ -3779,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3787,10 +3799,10 @@
         <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D70">
         <v>1186</v>
@@ -3799,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3807,10 +3819,10 @@
         <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C71" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D71">
         <v>1026</v>
@@ -3819,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3827,10 +3839,10 @@
         <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C72" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D72">
         <v>1169</v>
@@ -3839,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3847,10 +3859,10 @@
         <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C73" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D73">
         <v>1207</v>
@@ -3859,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3867,10 +3879,10 @@
         <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D74">
         <v>1028</v>
@@ -3879,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3887,10 +3899,10 @@
         <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C75" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D75">
         <v>1066</v>
@@ -3899,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3907,10 +3919,10 @@
         <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C76" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D76">
         <v>1069</v>
@@ -3919,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3927,10 +3939,10 @@
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C77" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D77">
         <v>1178</v>
@@ -3939,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3947,10 +3959,10 @@
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C78" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D78">
         <v>1185</v>
@@ -3959,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3967,10 +3979,10 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C79" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D79">
         <v>1232</v>
@@ -3979,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3987,10 +3999,10 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C80" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D80">
         <v>1029</v>
@@ -3999,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4007,10 +4019,10 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C81" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D81">
         <v>1208</v>
@@ -4019,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4027,10 +4039,10 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C82" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D82">
         <v>1222</v>
@@ -4039,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4047,10 +4059,10 @@
         <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C83" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D83">
         <v>1265</v>
@@ -4059,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4067,10 +4079,10 @@
         <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C84" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D84">
         <v>1273</v>
@@ -4079,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4087,10 +4099,10 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C85" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D85">
         <v>1030</v>
@@ -4099,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4107,10 +4119,10 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D86">
         <v>1031</v>
@@ -4119,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4127,10 +4139,10 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C87" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D87">
         <v>1144</v>
@@ -4139,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4147,10 +4159,10 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C88" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D88">
         <v>1032</v>
@@ -4159,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4167,10 +4179,10 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C89" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D89">
         <v>1064</v>
@@ -4179,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4187,10 +4199,10 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C90" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D90">
         <v>1033</v>
@@ -4199,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4207,10 +4219,10 @@
         <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D91">
         <v>1051</v>
@@ -4219,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4227,10 +4239,10 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C92" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D92">
         <v>1072</v>
@@ -4239,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4247,10 +4259,10 @@
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C93" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D93">
         <v>1143</v>
@@ -4259,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4267,10 +4279,10 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C94" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D94">
         <v>1203</v>
@@ -4279,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4287,10 +4299,10 @@
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C95" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D95">
         <v>1216</v>
@@ -4299,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4307,10 +4319,10 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C96" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D96">
         <v>1231</v>
@@ -4319,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4327,10 +4339,10 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C97" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D97">
         <v>1235</v>
@@ -4339,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4347,10 +4359,10 @@
         <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C98" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D98">
         <v>1034</v>
@@ -4359,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4367,10 +4379,10 @@
         <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C99" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D99">
         <v>1111</v>
@@ -4379,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4387,10 +4399,10 @@
         <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C100" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D100">
         <v>1244</v>
@@ -4399,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4407,10 +4419,10 @@
         <v>36</v>
       </c>
       <c r="B101" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C101" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D101">
         <v>1036</v>
@@ -4419,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4427,10 +4439,10 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C102" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D102">
         <v>1075</v>
@@ -4439,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4447,10 +4459,10 @@
         <v>36</v>
       </c>
       <c r="B103" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C103" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D103">
         <v>1155</v>
@@ -4459,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4467,10 +4479,10 @@
         <v>36</v>
       </c>
       <c r="B104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C104" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D104">
         <v>1210</v>
@@ -4479,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4487,10 +4499,10 @@
         <v>36</v>
       </c>
       <c r="B105" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D105">
         <v>1243</v>
@@ -4499,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4507,10 +4519,10 @@
         <v>36</v>
       </c>
       <c r="B106" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C106" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D106">
         <v>1252</v>
@@ -4519,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4527,10 +4539,10 @@
         <v>37</v>
       </c>
       <c r="B107" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C107" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D107">
         <v>1037</v>
@@ -4539,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4547,10 +4559,10 @@
         <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C108" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D108">
         <v>1085</v>
@@ -4559,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4567,10 +4579,10 @@
         <v>37</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C109" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D109">
         <v>1181</v>
@@ -4579,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4587,10 +4599,10 @@
         <v>38</v>
       </c>
       <c r="B110" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D110">
         <v>1038</v>
@@ -4599,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4607,10 +4619,10 @@
         <v>38</v>
       </c>
       <c r="B111" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C111" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D111">
         <v>1104</v>
@@ -4619,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4627,10 +4639,10 @@
         <v>38</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C112" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D112">
         <v>1266</v>
@@ -4639,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4647,10 +4659,10 @@
         <v>39</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C113" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D113">
         <v>1039</v>
@@ -4659,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4667,10 +4679,10 @@
         <v>39</v>
       </c>
       <c r="B114" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C114" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D114">
         <v>1047</v>
@@ -4679,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4687,10 +4699,10 @@
         <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C115" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D115">
         <v>1206</v>
@@ -4699,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4707,10 +4719,10 @@
         <v>40</v>
       </c>
       <c r="B116" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C116" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D116">
         <v>1040</v>
@@ -4719,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4727,10 +4739,10 @@
         <v>40</v>
       </c>
       <c r="B117" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C117" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D117">
         <v>1041</v>
@@ -4739,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4747,10 +4759,10 @@
         <v>41</v>
       </c>
       <c r="B118" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C118" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D118">
         <v>1042</v>
@@ -4759,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4767,10 +4779,10 @@
         <v>41</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D119">
         <v>1091</v>
@@ -4779,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4787,10 +4799,10 @@
         <v>41</v>
       </c>
       <c r="B120" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D120">
         <v>1179</v>
@@ -4799,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4807,10 +4819,10 @@
         <v>41</v>
       </c>
       <c r="B121" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C121" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D121">
         <v>1196</v>
@@ -4819,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4827,10 +4839,10 @@
         <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C122" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D122">
         <v>1274</v>
@@ -4839,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4847,10 +4859,10 @@
         <v>42</v>
       </c>
       <c r="B123" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C123" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D123">
         <v>1043</v>
@@ -4859,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4867,10 +4879,10 @@
         <v>42</v>
       </c>
       <c r="B124" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C124" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D124">
         <v>1261</v>
@@ -4879,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4887,10 +4899,10 @@
         <v>43</v>
       </c>
       <c r="B125" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C125" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D125">
         <v>1044</v>
@@ -4899,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4907,10 +4919,10 @@
         <v>43</v>
       </c>
       <c r="B126" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C126" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D126">
         <v>1048</v>
@@ -4919,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4927,10 +4939,10 @@
         <v>43</v>
       </c>
       <c r="B127" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C127" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D127">
         <v>1073</v>
@@ -4939,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4947,10 +4959,10 @@
         <v>43</v>
       </c>
       <c r="B128" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C128" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D128">
         <v>1145</v>
@@ -4959,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4967,10 +4979,10 @@
         <v>43</v>
       </c>
       <c r="B129" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C129" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D129">
         <v>1205</v>
@@ -4979,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4987,10 +4999,10 @@
         <v>43</v>
       </c>
       <c r="B130" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C130" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D130">
         <v>1270</v>
@@ -4999,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5007,10 +5019,10 @@
         <v>44</v>
       </c>
       <c r="B131" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C131" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D131">
         <v>1046</v>
@@ -5019,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5027,10 +5039,10 @@
         <v>44</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D132">
         <v>1109</v>
@@ -5039,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5047,10 +5059,10 @@
         <v>44</v>
       </c>
       <c r="B133" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C133" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D133">
         <v>1209</v>
@@ -5059,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5067,10 +5079,10 @@
         <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C134" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D134">
         <v>1049</v>
@@ -5079,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5087,10 +5099,10 @@
         <v>46</v>
       </c>
       <c r="B135" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C135" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D135">
         <v>1052</v>
@@ -5099,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5107,10 +5119,10 @@
         <v>47</v>
       </c>
       <c r="B136" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C136" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D136">
         <v>1053</v>
@@ -5119,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5127,10 +5139,10 @@
         <v>48</v>
       </c>
       <c r="B137" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C137" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D137">
         <v>1054</v>
@@ -5139,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5147,10 +5159,10 @@
         <v>49</v>
       </c>
       <c r="B138" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C138" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D138">
         <v>1056</v>
@@ -5159,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5167,10 +5179,10 @@
         <v>49</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C139" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D139">
         <v>1101</v>
@@ -5179,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5187,10 +5199,10 @@
         <v>49</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C140" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D140">
         <v>1120</v>
@@ -5199,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5207,10 +5219,10 @@
         <v>49</v>
       </c>
       <c r="B141" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C141" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D141">
         <v>1161</v>
@@ -5219,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5227,10 +5239,10 @@
         <v>49</v>
       </c>
       <c r="B142" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C142" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D142">
         <v>1227</v>
@@ -5239,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5247,10 +5259,10 @@
         <v>49</v>
       </c>
       <c r="B143" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C143" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D143">
         <v>1229</v>
@@ -5259,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5267,10 +5279,10 @@
         <v>50</v>
       </c>
       <c r="B144" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C144" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D144">
         <v>1057</v>
@@ -5279,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5287,10 +5299,10 @@
         <v>50</v>
       </c>
       <c r="B145" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C145" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D145">
         <v>1093</v>
@@ -5299,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5307,10 +5319,10 @@
         <v>50</v>
       </c>
       <c r="B146" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C146" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D146">
         <v>1133</v>
@@ -5319,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5327,10 +5339,10 @@
         <v>50</v>
       </c>
       <c r="B147" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C147" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D147">
         <v>1142</v>
@@ -5339,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5347,10 +5359,10 @@
         <v>50</v>
       </c>
       <c r="B148" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C148" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D148">
         <v>1166</v>
@@ -5359,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5367,10 +5379,10 @@
         <v>50</v>
       </c>
       <c r="B149" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C149" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D149">
         <v>1234</v>
@@ -5379,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5387,10 +5399,10 @@
         <v>50</v>
       </c>
       <c r="B150" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C150" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D150">
         <v>1254</v>
@@ -5399,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5407,10 +5419,10 @@
         <v>51</v>
       </c>
       <c r="B151" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C151" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D151">
         <v>1058</v>
@@ -5419,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5427,10 +5439,10 @@
         <v>51</v>
       </c>
       <c r="B152" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C152" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D152">
         <v>1197</v>
@@ -5439,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5447,10 +5459,10 @@
         <v>52</v>
       </c>
       <c r="B153" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C153" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D153">
         <v>1059</v>
@@ -5459,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5467,10 +5479,10 @@
         <v>52</v>
       </c>
       <c r="B154" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C154" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D154">
         <v>1074</v>
@@ -5479,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5487,10 +5499,10 @@
         <v>52</v>
       </c>
       <c r="B155" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C155" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D155">
         <v>1078</v>
@@ -5499,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5507,10 +5519,10 @@
         <v>52</v>
       </c>
       <c r="B156" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C156" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D156">
         <v>1226</v>
@@ -5519,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5527,10 +5539,10 @@
         <v>52</v>
       </c>
       <c r="B157" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C157" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D157">
         <v>1060</v>
@@ -5539,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5547,10 +5559,10 @@
         <v>53</v>
       </c>
       <c r="B158" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C158" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D158">
         <v>1061</v>
@@ -5559,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5567,10 +5579,10 @@
         <v>54</v>
       </c>
       <c r="B159" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C159" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D159">
         <v>1062</v>
@@ -5579,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5587,10 +5599,10 @@
         <v>54</v>
       </c>
       <c r="B160" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C160" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D160">
         <v>1063</v>
@@ -5599,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5607,10 +5619,10 @@
         <v>54</v>
       </c>
       <c r="B161" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C161" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D161">
         <v>1123</v>
@@ -5619,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5627,10 +5639,10 @@
         <v>55</v>
       </c>
       <c r="B162" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C162" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D162">
         <v>1068</v>
@@ -5639,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5647,10 +5659,10 @@
         <v>56</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C163" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D163">
         <v>1071</v>
@@ -5659,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5667,10 +5679,10 @@
         <v>21</v>
       </c>
       <c r="B164" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C164" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D164">
         <v>1076</v>
@@ -5679,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5687,10 +5699,10 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C165" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D165">
         <v>1193</v>
@@ -5699,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5707,10 +5719,10 @@
         <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C166" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D166">
         <v>1204</v>
@@ -5719,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5727,10 +5739,10 @@
         <v>21</v>
       </c>
       <c r="B167" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C167" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D167">
         <v>1268</v>
@@ -5739,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5747,10 +5759,10 @@
         <v>57</v>
       </c>
       <c r="B168" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C168" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D168">
         <v>1077</v>
@@ -5759,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5767,10 +5779,10 @@
         <v>58</v>
       </c>
       <c r="B169" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C169" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D169">
         <v>1079</v>
@@ -5779,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5787,10 +5799,10 @@
         <v>59</v>
       </c>
       <c r="B170" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C170" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D170">
         <v>1080</v>
@@ -5799,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5807,10 +5819,10 @@
         <v>59</v>
       </c>
       <c r="B171" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C171" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D171">
         <v>1116</v>
@@ -5819,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5827,10 +5839,10 @@
         <v>59</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C172" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D172">
         <v>1131</v>
@@ -5839,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5847,10 +5859,10 @@
         <v>59</v>
       </c>
       <c r="B173" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C173" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D173">
         <v>1213</v>
@@ -5859,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5867,10 +5879,10 @@
         <v>59</v>
       </c>
       <c r="B174" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C174" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D174">
         <v>1220</v>
@@ -5879,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5887,10 +5899,10 @@
         <v>60</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D175">
         <v>1081</v>
@@ -5899,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5907,10 +5919,10 @@
         <v>61</v>
       </c>
       <c r="B176" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C176" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D176">
         <v>1082</v>
@@ -5919,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5927,10 +5939,10 @@
         <v>61</v>
       </c>
       <c r="B177" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C177" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D177">
         <v>1162</v>
@@ -5939,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5947,10 +5959,10 @@
         <v>61</v>
       </c>
       <c r="B178" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C178" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D178">
         <v>1237</v>
@@ -5959,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5967,10 +5979,10 @@
         <v>62</v>
       </c>
       <c r="B179" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C179" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D179">
         <v>1083</v>
@@ -5979,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5987,10 +5999,10 @@
         <v>63</v>
       </c>
       <c r="B180" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C180" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D180">
         <v>1086</v>
@@ -5999,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6007,10 +6019,10 @@
         <v>63</v>
       </c>
       <c r="B181" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C181" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D181">
         <v>1214</v>
@@ -6019,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6027,10 +6039,10 @@
         <v>64</v>
       </c>
       <c r="B182" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C182" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D182">
         <v>1087</v>
@@ -6039,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6047,10 +6059,10 @@
         <v>64</v>
       </c>
       <c r="B183" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C183" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D183">
         <v>1271</v>
@@ -6059,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6067,10 +6079,10 @@
         <v>65</v>
       </c>
       <c r="B184" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C184" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D184">
         <v>1089</v>
@@ -6079,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6087,10 +6099,10 @@
         <v>66</v>
       </c>
       <c r="B185" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C185" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D185">
         <v>1090</v>
@@ -6099,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6107,10 +6119,10 @@
         <v>66</v>
       </c>
       <c r="B186" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C186" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D186">
         <v>1217</v>
@@ -6119,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6127,10 +6139,10 @@
         <v>67</v>
       </c>
       <c r="B187" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C187" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D187">
         <v>1092</v>
@@ -6139,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6147,10 +6159,10 @@
         <v>50</v>
       </c>
       <c r="B188" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C188" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D188">
         <v>1094</v>
@@ -6159,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6167,10 +6179,10 @@
         <v>68</v>
       </c>
       <c r="B189" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C189" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D189">
         <v>1096</v>
@@ -6179,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6187,10 +6199,10 @@
         <v>68</v>
       </c>
       <c r="B190" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C190" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D190">
         <v>1115</v>
@@ -6199,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6207,10 +6219,10 @@
         <v>68</v>
       </c>
       <c r="B191" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C191" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D191">
         <v>1269</v>
@@ -6219,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6227,10 +6239,10 @@
         <v>69</v>
       </c>
       <c r="B192" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C192" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D192">
         <v>1097</v>
@@ -6239,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6247,10 +6259,10 @@
         <v>69</v>
       </c>
       <c r="B193" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C193" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D193">
         <v>1146</v>
@@ -6259,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6267,10 +6279,10 @@
         <v>69</v>
       </c>
       <c r="B194" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C194" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D194">
         <v>1247</v>
@@ -6279,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6287,10 +6299,10 @@
         <v>70</v>
       </c>
       <c r="B195" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C195" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D195">
         <v>1098</v>
@@ -6299,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6307,10 +6319,10 @@
         <v>70</v>
       </c>
       <c r="B196" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C196" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D196">
         <v>1132</v>
@@ -6319,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6327,10 +6339,10 @@
         <v>70</v>
       </c>
       <c r="B197" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C197" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D197">
         <v>1168</v>
@@ -6339,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6347,10 +6359,10 @@
         <v>70</v>
       </c>
       <c r="B198" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C198" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D198">
         <v>1187</v>
@@ -6359,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6367,10 +6379,10 @@
         <v>70</v>
       </c>
       <c r="B199" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C199" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D199">
         <v>1228</v>
@@ -6379,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6387,10 +6399,10 @@
         <v>71</v>
       </c>
       <c r="B200" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C200" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D200">
         <v>1099</v>
@@ -6399,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6407,10 +6419,10 @@
         <v>71</v>
       </c>
       <c r="B201" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C201" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D201">
         <v>1184</v>
@@ -6419,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6427,10 +6439,10 @@
         <v>71</v>
       </c>
       <c r="B202" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C202" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D202">
         <v>1200</v>
@@ -6439,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6447,10 +6459,10 @@
         <v>72</v>
       </c>
       <c r="B203" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C203" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D203">
         <v>1100</v>
@@ -6459,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6467,10 +6479,10 @@
         <v>72</v>
       </c>
       <c r="B204" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C204" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D204">
         <v>1180</v>
@@ -6479,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6487,10 +6499,10 @@
         <v>73</v>
       </c>
       <c r="B205" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C205" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D205">
         <v>1102</v>
@@ -6499,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6507,10 +6519,10 @@
         <v>73</v>
       </c>
       <c r="B206" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C206" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D206">
         <v>1225</v>
@@ -6519,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6527,10 +6539,10 @@
         <v>32</v>
       </c>
       <c r="B207" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C207" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D207">
         <v>1103</v>
@@ -6539,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6547,10 +6559,10 @@
         <v>74</v>
       </c>
       <c r="B208" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C208" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D208">
         <v>1105</v>
@@ -6559,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6567,10 +6579,10 @@
         <v>75</v>
       </c>
       <c r="B209" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C209" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D209">
         <v>1106</v>
@@ -6579,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6587,10 +6599,10 @@
         <v>75</v>
       </c>
       <c r="B210" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C210" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D210">
         <v>1124</v>
@@ -6599,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6607,10 +6619,10 @@
         <v>75</v>
       </c>
       <c r="B211" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C211" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D211">
         <v>1246</v>
@@ -6619,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6627,10 +6639,10 @@
         <v>76</v>
       </c>
       <c r="B212" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C212" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D212">
         <v>1107</v>
@@ -6639,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6647,10 +6659,10 @@
         <v>77</v>
       </c>
       <c r="B213" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C213" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D213">
         <v>1108</v>
@@ -6659,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6667,10 +6679,10 @@
         <v>77</v>
       </c>
       <c r="B214" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C214" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D214">
         <v>1153</v>
@@ -6679,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6687,10 +6699,10 @@
         <v>77</v>
       </c>
       <c r="B215" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C215" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D215">
         <v>1263</v>
@@ -6699,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6707,10 +6719,10 @@
         <v>78</v>
       </c>
       <c r="B216" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C216" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D216">
         <v>1110</v>
@@ -6719,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6727,10 +6739,10 @@
         <v>78</v>
       </c>
       <c r="B217" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C217" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D217">
         <v>1224</v>
@@ -6739,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6747,10 +6759,10 @@
         <v>78</v>
       </c>
       <c r="B218" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C218" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D218">
         <v>1236</v>
@@ -6759,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6767,10 +6779,10 @@
         <v>78</v>
       </c>
       <c r="B219" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C219" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D219">
         <v>1260</v>
@@ -6779,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6787,10 +6799,10 @@
         <v>79</v>
       </c>
       <c r="B220" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C220" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D220">
         <v>1112</v>
@@ -6799,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6807,10 +6819,10 @@
         <v>79</v>
       </c>
       <c r="B221" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C221" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D221">
         <v>1173</v>
@@ -6819,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6827,10 +6839,10 @@
         <v>79</v>
       </c>
       <c r="B222" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C222" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D222">
         <v>1215</v>
@@ -6839,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6847,10 +6859,10 @@
         <v>79</v>
       </c>
       <c r="B223" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C223" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D223">
         <v>1113</v>
@@ -6859,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6867,10 +6879,10 @@
         <v>80</v>
       </c>
       <c r="B224" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C224" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D224">
         <v>1114</v>
@@ -6879,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6887,10 +6899,10 @@
         <v>81</v>
       </c>
       <c r="B225" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C225" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D225">
         <v>1121</v>
@@ -6899,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6907,10 +6919,10 @@
         <v>82</v>
       </c>
       <c r="B226" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C226" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D226">
         <v>1122</v>
@@ -6919,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6927,10 +6939,10 @@
         <v>83</v>
       </c>
       <c r="B227" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C227" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D227">
         <v>1125</v>
@@ -6939,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6947,10 +6959,10 @@
         <v>84</v>
       </c>
       <c r="B228" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C228" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D228">
         <v>1126</v>
@@ -6959,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6967,10 +6979,10 @@
         <v>85</v>
       </c>
       <c r="B229" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C229" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D229">
         <v>1128</v>
@@ -6979,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6987,10 +6999,10 @@
         <v>85</v>
       </c>
       <c r="B230" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D230">
         <v>1159</v>
@@ -6999,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="G230" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7007,10 +7019,10 @@
         <v>86</v>
       </c>
       <c r="B231" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C231" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D231">
         <v>1129</v>
@@ -7019,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7027,10 +7039,10 @@
         <v>86</v>
       </c>
       <c r="B232" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C232" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D232">
         <v>1136</v>
@@ -7039,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="G232" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7047,10 +7059,10 @@
         <v>86</v>
       </c>
       <c r="B233" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C233" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D233">
         <v>1156</v>
@@ -7059,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7067,10 +7079,10 @@
         <v>87</v>
       </c>
       <c r="B234" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C234" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D234">
         <v>1135</v>
@@ -7079,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7087,10 +7099,10 @@
         <v>87</v>
       </c>
       <c r="B235" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C235" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D235">
         <v>1163</v>
@@ -7099,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -7107,10 +7119,10 @@
         <v>87</v>
       </c>
       <c r="B236" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C236" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D236">
         <v>1259</v>
@@ -7119,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="G236" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7127,10 +7139,10 @@
         <v>87</v>
       </c>
       <c r="B237" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C237" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D237">
         <v>1272</v>
@@ -7139,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="G237" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7147,10 +7159,10 @@
         <v>88</v>
       </c>
       <c r="B238" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C238" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D238">
         <v>1137</v>
@@ -7159,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7167,10 +7179,10 @@
         <v>88</v>
       </c>
       <c r="B239" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C239" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D239">
         <v>1189</v>
@@ -7179,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7187,10 +7199,10 @@
         <v>89</v>
       </c>
       <c r="B240" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C240" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D240">
         <v>1140</v>
@@ -7199,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="G240" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7207,10 +7219,10 @@
         <v>89</v>
       </c>
       <c r="B241" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C241" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D241">
         <v>1183</v>
@@ -7219,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="G241" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7227,10 +7239,10 @@
         <v>89</v>
       </c>
       <c r="B242" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C242" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D242">
         <v>1223</v>
@@ -7239,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="G242" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7247,10 +7259,10 @@
         <v>89</v>
       </c>
       <c r="B243" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C243" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D243">
         <v>1267</v>
@@ -7259,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7267,10 +7279,10 @@
         <v>90</v>
       </c>
       <c r="B244" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C244" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D244">
         <v>1147</v>
@@ -7279,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7287,10 +7299,10 @@
         <v>90</v>
       </c>
       <c r="B245" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C245" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D245">
         <v>1249</v>
@@ -7299,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7307,10 +7319,10 @@
         <v>91</v>
       </c>
       <c r="B246" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C246" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D246">
         <v>1148</v>
@@ -7319,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="G246" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7327,10 +7339,10 @@
         <v>91</v>
       </c>
       <c r="B247" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C247" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D247">
         <v>1251</v>
@@ -7339,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7347,10 +7359,10 @@
         <v>92</v>
       </c>
       <c r="B248" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C248" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D248">
         <v>1149</v>
@@ -7359,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="G248" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7367,10 +7379,10 @@
         <v>93</v>
       </c>
       <c r="B249" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C249" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D249">
         <v>1151</v>
@@ -7379,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="G249" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7387,10 +7399,10 @@
         <v>94</v>
       </c>
       <c r="B250" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C250" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D250">
         <v>1164</v>
@@ -7399,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7407,10 +7419,10 @@
         <v>94</v>
       </c>
       <c r="B251" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C251" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D251">
         <v>1176</v>
@@ -7419,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="G251" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7427,10 +7439,10 @@
         <v>95</v>
       </c>
       <c r="B252" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C252" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D252">
         <v>1165</v>
@@ -7439,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="G252" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7447,10 +7459,10 @@
         <v>95</v>
       </c>
       <c r="B253" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C253" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D253">
         <v>1264</v>
@@ -7459,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="G253" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -7467,10 +7479,10 @@
         <v>96</v>
       </c>
       <c r="B254" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C254" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D254">
         <v>1171</v>
@@ -7479,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="G254" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7487,10 +7499,10 @@
         <v>96</v>
       </c>
       <c r="B255" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C255" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D255">
         <v>1262</v>
@@ -7499,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7507,10 +7519,10 @@
         <v>97</v>
       </c>
       <c r="B256" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C256" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D256">
         <v>1172</v>
@@ -7519,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="G256" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7527,10 +7539,10 @@
         <v>98</v>
       </c>
       <c r="B257" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C257" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D257">
         <v>1177</v>
@@ -7539,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -7547,10 +7559,10 @@
         <v>99</v>
       </c>
       <c r="B258" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C258" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D258">
         <v>1182</v>
@@ -7559,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7567,10 +7579,10 @@
         <v>100</v>
       </c>
       <c r="B259" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C259" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D259">
         <v>1190</v>
@@ -7579,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -7587,10 +7599,10 @@
         <v>100</v>
       </c>
       <c r="B260" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C260" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D260">
         <v>1253</v>
@@ -7599,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7607,10 +7619,10 @@
         <v>101</v>
       </c>
       <c r="B261" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C261" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D261">
         <v>1191</v>
@@ -7619,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7627,10 +7639,10 @@
         <v>102</v>
       </c>
       <c r="B262" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C262" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D262">
         <v>1192</v>
@@ -7639,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="G262" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -7647,10 +7659,10 @@
         <v>103</v>
       </c>
       <c r="B263" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C263" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D263">
         <v>1198</v>
@@ -7659,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="G263" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -7667,10 +7679,10 @@
         <v>104</v>
       </c>
       <c r="B264" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C264" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D264">
         <v>1199</v>
@@ -7679,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="G264" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7687,10 +7699,10 @@
         <v>105</v>
       </c>
       <c r="B265" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C265" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D265">
         <v>1201</v>
@@ -7699,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="G265" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -7707,10 +7719,10 @@
         <v>106</v>
       </c>
       <c r="B266" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C266" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D266">
         <v>1212</v>
@@ -7719,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -7727,10 +7739,10 @@
         <v>107</v>
       </c>
       <c r="B267" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C267" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D267">
         <v>1219</v>
@@ -7739,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="G267" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -7747,10 +7759,10 @@
         <v>108</v>
       </c>
       <c r="B268" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C268" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D268">
         <v>1221</v>
@@ -7759,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -7767,10 +7779,10 @@
         <v>109</v>
       </c>
       <c r="B269" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C269" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D269">
         <v>1230</v>
@@ -7779,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="G269" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -7787,10 +7799,10 @@
         <v>110</v>
       </c>
       <c r="B270" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C270" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D270">
         <v>1238</v>
@@ -7799,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="G270" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -7807,10 +7819,10 @@
         <v>111</v>
       </c>
       <c r="B271" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C271" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D271">
         <v>1242</v>
@@ -7819,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -7827,10 +7839,10 @@
         <v>112</v>
       </c>
       <c r="B272" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C272" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D272">
         <v>1245</v>
@@ -7839,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -7847,10 +7859,10 @@
         <v>112</v>
       </c>
       <c r="B273" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C273" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D273">
         <v>1276</v>
@@ -7859,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -7867,10 +7879,10 @@
         <v>113</v>
       </c>
       <c r="B274" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C274" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D274">
         <v>1248</v>
@@ -7879,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -7887,10 +7899,10 @@
         <v>114</v>
       </c>
       <c r="B275" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C275" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D275">
         <v>1255</v>
@@ -7899,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="G275" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -7907,10 +7919,10 @@
         <v>115</v>
       </c>
       <c r="B276" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C276" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D276">
         <v>1257</v>
@@ -7919,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="G276" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -7927,10 +7939,10 @@
         <v>116</v>
       </c>
       <c r="B277" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C277" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D277">
         <v>1275</v>
@@ -7939,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -7947,10 +7959,10 @@
         <v>117</v>
       </c>
       <c r="B278" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C278" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D278">
         <v>1277</v>
@@ -7959,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="G278" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -7967,10 +7979,10 @@
         <v>118</v>
       </c>
       <c r="B279" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C279" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D279">
         <v>1278</v>
@@ -7979,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -7987,10 +7999,10 @@
         <v>119</v>
       </c>
       <c r="B280" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C280" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D280">
         <v>1279</v>
@@ -7999,7 +8011,27 @@
         <v>0</v>
       </c>
       <c r="G280" t="s">
-        <v>672</v>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>120</v>
+      </c>
+      <c r="B281" t="s">
+        <v>294</v>
+      </c>
+      <c r="C281" t="s">
+        <v>556</v>
+      </c>
+      <c r="D281">
+        <v>1280</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="G281" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/data/a_working/control.xlsx
+++ b/data/a_working/control.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12b7beb4033c55a8/Documents/GitHub/hein_scraping/data/a_working/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E2FE9CCD9689AACEB0170B0C63DEF875512D97F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{279A3E7A-9021-4C9D-A11A-7CE4356B912A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$281</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2050,8 +2059,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2114,6 +2123,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2160,7 +2177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2192,9 +2209,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2226,6 +2261,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2401,14 +2454,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2434,7 +2490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2454,7 +2510,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2474,7 +2530,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2494,7 +2550,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2514,7 +2570,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2534,7 +2590,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2554,7 +2610,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2574,7 +2630,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2594,7 +2650,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2614,7 +2670,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2634,7 +2690,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2654,7 +2710,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2674,7 +2730,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2694,7 +2750,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2714,7 +2770,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2734,7 +2790,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2754,7 +2810,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2774,7 +2830,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2794,7 +2850,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2814,7 +2870,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2834,7 +2890,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2854,7 +2910,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2874,7 +2930,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2894,7 +2950,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2914,7 +2970,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2934,7 +2990,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2954,7 +3010,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2974,7 +3030,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2994,7 +3050,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3014,7 +3070,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -3034,7 +3090,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -3054,7 +3110,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -3074,7 +3130,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -3094,7 +3150,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -3114,7 +3170,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -3134,7 +3190,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -3154,7 +3210,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -3174,7 +3230,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -3194,7 +3250,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -3214,7 +3270,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -3234,7 +3290,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -3254,7 +3310,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -3274,7 +3330,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -3294,7 +3350,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -3314,7 +3370,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -3334,7 +3390,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -3354,7 +3410,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -3374,7 +3430,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -3394,7 +3450,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -3414,7 +3470,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -3434,7 +3490,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -3454,7 +3510,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -3474,7 +3530,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -3494,7 +3550,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -3514,7 +3570,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -3534,7 +3590,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -3554,7 +3610,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -3574,7 +3630,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -3594,7 +3650,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -3614,7 +3670,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -3634,7 +3690,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -3654,7 +3710,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -3674,7 +3730,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -3694,7 +3750,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -3714,7 +3770,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -3734,7 +3790,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -3754,7 +3810,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -3774,7 +3830,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -3794,7 +3850,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -3814,7 +3870,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -3834,7 +3890,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -3854,7 +3910,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -3874,7 +3930,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>29</v>
       </c>
@@ -3894,7 +3950,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -3914,7 +3970,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>29</v>
       </c>
@@ -3934,7 +3990,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -3954,7 +4010,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>29</v>
       </c>
@@ -3974,7 +4030,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -3994,7 +4050,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -4014,7 +4070,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>30</v>
       </c>
@@ -4034,7 +4090,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -4054,7 +4110,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -4074,7 +4130,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>30</v>
       </c>
@@ -4094,7 +4150,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -4114,7 +4170,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -4134,7 +4190,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -4154,7 +4210,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -4174,7 +4230,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>33</v>
       </c>
@@ -4194,7 +4250,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -4214,7 +4270,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -4234,7 +4290,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -4254,7 +4310,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -4274,7 +4330,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>34</v>
       </c>
@@ -4294,7 +4350,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>34</v>
       </c>
@@ -4314,7 +4370,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>34</v>
       </c>
@@ -4334,7 +4390,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>34</v>
       </c>
@@ -4354,7 +4410,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>35</v>
       </c>
@@ -4374,7 +4430,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>35</v>
       </c>
@@ -4394,7 +4450,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>35</v>
       </c>
@@ -4414,7 +4470,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>36</v>
       </c>
@@ -4434,7 +4490,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -4454,7 +4510,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -4474,7 +4530,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -4494,7 +4550,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>36</v>
       </c>
@@ -4514,7 +4570,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>36</v>
       </c>
@@ -4534,7 +4590,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>37</v>
       </c>
@@ -4554,7 +4610,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>37</v>
       </c>
@@ -4574,7 +4630,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>37</v>
       </c>
@@ -4594,7 +4650,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>38</v>
       </c>
@@ -4614,7 +4670,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>38</v>
       </c>
@@ -4634,7 +4690,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>38</v>
       </c>
@@ -4654,7 +4710,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>39</v>
       </c>
@@ -4674,7 +4730,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>39</v>
       </c>
@@ -4694,7 +4750,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>39</v>
       </c>
@@ -4714,7 +4770,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>40</v>
       </c>
@@ -4734,7 +4790,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>40</v>
       </c>
@@ -4754,7 +4810,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>41</v>
       </c>
@@ -4774,7 +4830,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>41</v>
       </c>
@@ -4794,7 +4850,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>41</v>
       </c>
@@ -4814,7 +4870,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>41</v>
       </c>
@@ -4834,7 +4890,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>41</v>
       </c>
@@ -4854,7 +4910,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>42</v>
       </c>
@@ -4874,7 +4930,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>42</v>
       </c>
@@ -4894,7 +4950,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>43</v>
       </c>
@@ -4914,7 +4970,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>43</v>
       </c>
@@ -4934,7 +4990,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>43</v>
       </c>
@@ -4954,7 +5010,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>43</v>
       </c>
@@ -4974,7 +5030,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>43</v>
       </c>
@@ -4994,7 +5050,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>43</v>
       </c>
@@ -5014,7 +5070,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>44</v>
       </c>
@@ -5034,7 +5090,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>44</v>
       </c>
@@ -5054,7 +5110,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>44</v>
       </c>
@@ -5074,7 +5130,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>45</v>
       </c>
@@ -5094,7 +5150,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>46</v>
       </c>
@@ -5114,7 +5170,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>47</v>
       </c>
@@ -5134,7 +5190,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>48</v>
       </c>
@@ -5154,7 +5210,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>49</v>
       </c>
@@ -5174,7 +5230,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>49</v>
       </c>
@@ -5194,7 +5250,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>49</v>
       </c>
@@ -5214,7 +5270,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>49</v>
       </c>
@@ -5234,7 +5290,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>49</v>
       </c>
@@ -5254,7 +5310,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>49</v>
       </c>
@@ -5274,7 +5330,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>50</v>
       </c>
@@ -5294,7 +5350,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>50</v>
       </c>
@@ -5314,7 +5370,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>50</v>
       </c>
@@ -5334,7 +5390,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>50</v>
       </c>
@@ -5354,7 +5410,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>50</v>
       </c>
@@ -5374,7 +5430,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>50</v>
       </c>
@@ -5394,7 +5450,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>50</v>
       </c>
@@ -5414,7 +5470,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>51</v>
       </c>
@@ -5434,7 +5490,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>51</v>
       </c>
@@ -5454,7 +5510,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>52</v>
       </c>
@@ -5474,7 +5530,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>52</v>
       </c>
@@ -5494,7 +5550,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>52</v>
       </c>
@@ -5514,7 +5570,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>52</v>
       </c>
@@ -5534,7 +5590,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>52</v>
       </c>
@@ -5554,7 +5610,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>53</v>
       </c>
@@ -5574,7 +5630,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>54</v>
       </c>
@@ -5594,7 +5650,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>54</v>
       </c>
@@ -5614,7 +5670,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>54</v>
       </c>
@@ -5634,7 +5690,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>55</v>
       </c>
@@ -5654,7 +5710,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>56</v>
       </c>
@@ -5674,7 +5730,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>21</v>
       </c>
@@ -5694,7 +5750,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>21</v>
       </c>
@@ -5714,7 +5770,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -5734,7 +5790,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -5754,7 +5810,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>57</v>
       </c>
@@ -5774,7 +5830,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>58</v>
       </c>
@@ -5794,7 +5850,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>59</v>
       </c>
@@ -5814,7 +5870,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>59</v>
       </c>
@@ -5834,7 +5890,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>59</v>
       </c>
@@ -5854,7 +5910,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>59</v>
       </c>
@@ -5874,7 +5930,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>59</v>
       </c>
@@ -5894,7 +5950,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>60</v>
       </c>
@@ -5914,7 +5970,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>61</v>
       </c>
@@ -5934,7 +5990,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>61</v>
       </c>
@@ -5954,7 +6010,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>61</v>
       </c>
@@ -5974,7 +6030,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>62</v>
       </c>
@@ -5994,7 +6050,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>63</v>
       </c>
@@ -6014,7 +6070,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>63</v>
       </c>
@@ -6034,7 +6090,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>64</v>
       </c>
@@ -6054,7 +6110,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>64</v>
       </c>
@@ -6074,7 +6130,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>65</v>
       </c>
@@ -6094,7 +6150,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>66</v>
       </c>
@@ -6114,7 +6170,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>66</v>
       </c>
@@ -6134,7 +6190,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>67</v>
       </c>
@@ -6154,7 +6210,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>50</v>
       </c>
@@ -6174,7 +6230,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>68</v>
       </c>
@@ -6194,7 +6250,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>68</v>
       </c>
@@ -6214,7 +6270,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>68</v>
       </c>
@@ -6234,7 +6290,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>69</v>
       </c>
@@ -6254,7 +6310,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>69</v>
       </c>
@@ -6274,7 +6330,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>69</v>
       </c>
@@ -6294,7 +6350,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>70</v>
       </c>
@@ -6314,7 +6370,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>70</v>
       </c>
@@ -6334,7 +6390,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>70</v>
       </c>
@@ -6354,7 +6410,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>70</v>
       </c>
@@ -6374,7 +6430,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>70</v>
       </c>
@@ -6394,7 +6450,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>71</v>
       </c>
@@ -6414,7 +6470,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>71</v>
       </c>
@@ -6434,7 +6490,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>71</v>
       </c>
@@ -6454,7 +6510,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>72</v>
       </c>
@@ -6474,7 +6530,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>72</v>
       </c>
@@ -6494,7 +6550,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>73</v>
       </c>
@@ -6514,7 +6570,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>73</v>
       </c>
@@ -6534,7 +6590,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>32</v>
       </c>
@@ -6554,7 +6610,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>74</v>
       </c>
@@ -6574,7 +6630,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>75</v>
       </c>
@@ -6594,7 +6650,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>75</v>
       </c>
@@ -6614,7 +6670,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>75</v>
       </c>
@@ -6634,7 +6690,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>76</v>
       </c>
@@ -6654,7 +6710,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>77</v>
       </c>
@@ -6674,7 +6730,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>77</v>
       </c>
@@ -6694,7 +6750,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>77</v>
       </c>
@@ -6714,7 +6770,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>78</v>
       </c>
@@ -6734,7 +6790,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>78</v>
       </c>
@@ -6754,7 +6810,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>78</v>
       </c>
@@ -6774,7 +6830,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>78</v>
       </c>
@@ -6794,7 +6850,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>79</v>
       </c>
@@ -6814,7 +6870,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>79</v>
       </c>
@@ -6834,7 +6890,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>79</v>
       </c>
@@ -6854,7 +6910,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>79</v>
       </c>
@@ -6874,7 +6930,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>80</v>
       </c>
@@ -6894,7 +6950,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>81</v>
       </c>
@@ -6914,7 +6970,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>82</v>
       </c>
@@ -6934,7 +6990,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>83</v>
       </c>
@@ -6954,7 +7010,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>84</v>
       </c>
@@ -6974,7 +7030,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>85</v>
       </c>
@@ -6994,7 +7050,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>85</v>
       </c>
@@ -7014,7 +7070,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>86</v>
       </c>
@@ -7034,7 +7090,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>86</v>
       </c>
@@ -7054,7 +7110,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>86</v>
       </c>
@@ -7074,7 +7130,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>87</v>
       </c>
@@ -7094,7 +7150,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>87</v>
       </c>
@@ -7114,7 +7170,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>87</v>
       </c>
@@ -7134,7 +7190,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>87</v>
       </c>
@@ -7154,7 +7210,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>88</v>
       </c>
@@ -7174,7 +7230,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>88</v>
       </c>
@@ -7194,7 +7250,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>89</v>
       </c>
@@ -7214,7 +7270,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>89</v>
       </c>
@@ -7234,7 +7290,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>89</v>
       </c>
@@ -7254,7 +7310,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>89</v>
       </c>
@@ -7274,7 +7330,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>90</v>
       </c>
@@ -7294,7 +7350,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>90</v>
       </c>
@@ -7314,7 +7370,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>91</v>
       </c>
@@ -7334,7 +7390,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>91</v>
       </c>
@@ -7354,7 +7410,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>92</v>
       </c>
@@ -7374,7 +7430,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>93</v>
       </c>
@@ -7394,7 +7450,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>94</v>
       </c>
@@ -7414,7 +7470,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>94</v>
       </c>
@@ -7434,7 +7490,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>95</v>
       </c>
@@ -7454,7 +7510,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>95</v>
       </c>
@@ -7474,7 +7530,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>96</v>
       </c>
@@ -7494,7 +7550,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>96</v>
       </c>
@@ -7514,7 +7570,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>97</v>
       </c>
@@ -7534,7 +7590,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>98</v>
       </c>
@@ -7554,7 +7610,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>99</v>
       </c>
@@ -7574,7 +7630,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>100</v>
       </c>
@@ -7594,7 +7650,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>100</v>
       </c>
@@ -7614,7 +7670,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>101</v>
       </c>
@@ -7634,7 +7690,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>102</v>
       </c>
@@ -7654,7 +7710,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>103</v>
       </c>
@@ -7674,7 +7730,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>104</v>
       </c>
@@ -7694,7 +7750,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>105</v>
       </c>
@@ -7714,7 +7770,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>106</v>
       </c>
@@ -7734,7 +7790,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>107</v>
       </c>
@@ -7754,7 +7810,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>108</v>
       </c>
@@ -7774,7 +7830,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>109</v>
       </c>
@@ -7794,7 +7850,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>110</v>
       </c>
@@ -7814,7 +7870,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>111</v>
       </c>
@@ -7834,7 +7890,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>112</v>
       </c>
@@ -7854,7 +7910,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>112</v>
       </c>
@@ -7874,7 +7930,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>113</v>
       </c>
@@ -7894,7 +7950,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>114</v>
       </c>
@@ -7914,7 +7970,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>115</v>
       </c>
@@ -7934,7 +7990,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>116</v>
       </c>
@@ -7954,7 +8010,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>117</v>
       </c>
@@ -7974,7 +8030,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>118</v>
       </c>
@@ -7994,7 +8050,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>119</v>
       </c>
@@ -8014,7 +8070,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>120</v>
       </c>
@@ -8035,6 +8091,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H281" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1058"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>